--- a/MadridEdG.xlsx
+++ b/MadridEdG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\OneDrive\Desktop\Vincenzo\1.Dottorato\progetti valutazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E24A34B-6E47-4475-8D37-D479DE99158D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3084CE-B35B-43D0-A528-9E436C144339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2671,9 +2671,6 @@
     <t>Sigue siendo observable y detectable el cambio positivo en el contexto?</t>
   </si>
   <si>
-    <t>¿Cuáles han sido, si los hay, los cambios significativos1</t>
-  </si>
-  <si>
     <t>el cambio más significativo fue la mayor interconexión entre realidades que eran muy efectivas en sus respectivos contextos pero no eran suficientemente conscientes del efecto multiplicador que puede producir un buen trabajo en equipo. más que en las habilidades técnicas, que en sí mismas son bastante altas, el proyecto afectó las habilidades transversales de los participantes.</t>
   </si>
   <si>
@@ -4208,6 +4205,9 @@
   </si>
   <si>
     <t>en 2015, axa completó el servicio de higiene ambiental del municipio de lecce con la adquisición de la empresa monteco. a raíz de la gestión del servicio de recogida selectiva de residuos, mediante campanas, por parte de axa que documentó un aumento de la recogida de rsu, la nueva empresa monteco, también en relación con la legislación vigente y las cláusulas contenidas en el contrato con el municipio de lecce, el compromiso continuó en la dirección trazada por el proyecto. se puede afirmar en general que los resultados positivos alcanzados con el proyecto rallan han influido en cierta medida en el nuevo servicio de recogida (desde timbres hasta "puerta a puerta") en el marco de las distintas acciones implementadas por los socios que implementaron el proyecto. .</t>
+  </si>
+  <si>
+    <t>¿Cuáles han sido, si los hay, los cambios significativos</t>
   </si>
 </sst>
 </file>
@@ -4590,8 +4590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4925D8-7525-4E9B-9A91-FD0496E9B3D9}">
   <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4636,7 +4636,7 @@
         <v>876</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>877</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -4665,7 +4665,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="J2" t="s">
         <v>861</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -4741,16 +4741,16 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K4" t="s">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4779,16 +4779,16 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -4817,16 +4817,16 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="K6" t="s">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -4858,13 +4858,13 @@
         <v>623</v>
       </c>
       <c r="J7" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="K7" t="s">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -4893,16 +4893,16 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K8" t="s">
         <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -4934,13 +4934,13 @@
         <v>257</v>
       </c>
       <c r="J9" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="K9" t="s">
         <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -4969,7 +4969,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J10" t="s">
         <v>820</v>
@@ -4978,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -5007,16 +5007,16 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J11" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="K11" t="s">
         <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -5045,7 +5045,7 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="J12" t="s">
         <v>868</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -5083,16 +5083,16 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J13" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="K13" t="s">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -5121,16 +5121,16 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="J14" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="K14" t="s">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -5159,16 +5159,16 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J15" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="K15" t="s">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -5197,16 +5197,16 @@
         <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="J16" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="K16" t="s">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -5235,16 +5235,16 @@
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="J17" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K17" t="s">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -5273,16 +5273,16 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="J18" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="K18" t="s">
         <v>46</v>
       </c>
       <c r="L18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -5311,7 +5311,7 @@
         <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="J19" t="s">
         <v>855</v>
@@ -5320,7 +5320,7 @@
         <v>46</v>
       </c>
       <c r="L19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -5349,16 +5349,16 @@
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="J20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="K20" t="s">
         <v>46</v>
       </c>
       <c r="L20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -5387,16 +5387,16 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="J21" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K21" t="s">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -5425,7 +5425,7 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="J22" t="s">
         <v>862</v>
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -5463,16 +5463,16 @@
         <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="J23" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="K23" t="s">
         <v>46</v>
       </c>
       <c r="L23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -5501,16 +5501,16 @@
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="J24" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="K24" t="s">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -5539,16 +5539,16 @@
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="J25" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="K25" t="s">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -5577,7 +5577,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="J26" t="s">
         <v>834</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -5615,7 +5615,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="J27" t="s">
         <v>850</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -5653,16 +5653,16 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="J28" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="K28" t="s">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -5691,16 +5691,16 @@
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="J29" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
       </c>
       <c r="L29" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -5729,16 +5729,16 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="J30" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="K30" t="s">
         <v>46</v>
       </c>
       <c r="L30" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
@@ -5767,16 +5767,16 @@
         <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="J31" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="K31" t="s">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -5805,7 +5805,7 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="J32" t="s">
         <v>822</v>
@@ -5814,7 +5814,7 @@
         <v>46</v>
       </c>
       <c r="L32" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -5843,16 +5843,16 @@
         <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J33" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K33" t="s">
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -5881,16 +5881,16 @@
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="J34" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="K34" t="s">
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -5919,7 +5919,7 @@
         <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="J35" t="s">
         <v>833</v>
@@ -5928,7 +5928,7 @@
         <v>46</v>
       </c>
       <c r="L35" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -5957,16 +5957,16 @@
         <v>7</v>
       </c>
       <c r="I36" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="J36" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="K36" t="s">
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -5995,16 +5995,16 @@
         <v>8</v>
       </c>
       <c r="I37" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="J37" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K37" t="s">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -6033,16 +6033,16 @@
         <v>7</v>
       </c>
       <c r="I38" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="J38" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="K38" t="s">
         <v>46</v>
       </c>
       <c r="L38" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -6071,7 +6071,7 @@
         <v>9</v>
       </c>
       <c r="I39" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="J39" t="s">
         <v>839</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -6109,7 +6109,7 @@
         <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="J40" t="s">
         <v>845</v>
@@ -6118,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -6147,16 +6147,16 @@
         <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="J41" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K41" t="s">
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -6185,7 +6185,7 @@
         <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="J42" t="s">
         <v>819</v>
@@ -6194,7 +6194,7 @@
         <v>46</v>
       </c>
       <c r="L42" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -6223,16 +6223,16 @@
         <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="J43" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K43" t="s">
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -6261,16 +6261,16 @@
         <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="J44" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K44" t="s">
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -6299,7 +6299,7 @@
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="J45" t="s">
         <v>851</v>
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -6337,7 +6337,7 @@
         <v>7</v>
       </c>
       <c r="I46" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="J46" t="s">
         <v>47</v>
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -6375,16 +6375,16 @@
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="J47" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="K47" t="s">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -6416,13 +6416,13 @@
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K48" t="s">
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -6451,16 +6451,16 @@
         <v>11</v>
       </c>
       <c r="I49" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="J49" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="K49" t="s">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -6492,13 +6492,13 @@
         <v>536</v>
       </c>
       <c r="J50" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="K50" t="s">
         <v>46</v>
       </c>
       <c r="L50" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -6527,10 +6527,10 @@
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="J51" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K51" t="s">
         <v>0</v>
@@ -6565,16 +6565,16 @@
         <v>11</v>
       </c>
       <c r="I52" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="J52" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="K52" t="s">
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -6603,16 +6603,16 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="J53" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K53" t="s">
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -6679,7 +6679,7 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="J55" t="s">
         <v>811</v>
@@ -6688,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -6717,16 +6717,16 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="J56" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K56" t="s">
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -6755,16 +6755,16 @@
         <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="J57" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K57" t="s">
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -6793,7 +6793,7 @@
         <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="J58" t="s">
         <v>852</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -6831,7 +6831,7 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -6869,16 +6869,16 @@
         <v>11</v>
       </c>
       <c r="I60" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="J60" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="K60" t="s">
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -6907,7 +6907,7 @@
         <v>7</v>
       </c>
       <c r="I61" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="J61" t="s">
         <v>47</v>
@@ -6916,7 +6916,7 @@
         <v>46</v>
       </c>
       <c r="L61" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -6945,7 +6945,7 @@
         <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="J62" t="s">
         <v>838</v>
@@ -6983,16 +6983,16 @@
         <v>31</v>
       </c>
       <c r="I63" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="J63" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K63" t="s">
         <v>46</v>
       </c>
       <c r="L63" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -7021,16 +7021,16 @@
         <v>24</v>
       </c>
       <c r="I64" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="J64" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K64" t="s">
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -7059,16 +7059,16 @@
         <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="J65" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="K65" t="s">
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -7097,16 +7097,16 @@
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="J66" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K66" t="s">
         <v>46</v>
       </c>
       <c r="L66" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -7135,7 +7135,7 @@
         <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="J67" t="s">
         <v>856</v>
@@ -7144,7 +7144,7 @@
         <v>46</v>
       </c>
       <c r="L67" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -7173,16 +7173,16 @@
         <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="J68" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K68" t="s">
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -7211,16 +7211,16 @@
         <v>7</v>
       </c>
       <c r="I69" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="J69" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="K69" t="s">
         <v>46</v>
       </c>
       <c r="L69" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -7249,7 +7249,7 @@
         <v>5</v>
       </c>
       <c r="I70" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="J70" t="s">
         <v>865</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -7287,16 +7287,16 @@
         <v>3</v>
       </c>
       <c r="I71" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="J71" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="K71" t="s">
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -7325,16 +7325,16 @@
         <v>7</v>
       </c>
       <c r="I72" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="J72" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="K72" t="s">
         <v>46</v>
       </c>
       <c r="L72" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -7363,16 +7363,16 @@
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="J73" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="K73" t="s">
         <v>46</v>
       </c>
       <c r="L73" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -7439,16 +7439,16 @@
         <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="J75" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="K75" t="s">
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -7477,7 +7477,7 @@
         <v>7</v>
       </c>
       <c r="I76" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="J76" t="s">
         <v>846</v>
@@ -7515,7 +7515,7 @@
         <v>6</v>
       </c>
       <c r="I77" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="J77" t="s">
         <v>866</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -7553,10 +7553,10 @@
         <v>6</v>
       </c>
       <c r="I78" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="J78" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="K78" t="s">
         <v>46</v>
@@ -7594,13 +7594,13 @@
         <v>409</v>
       </c>
       <c r="J79" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K79" t="s">
         <v>46</v>
       </c>
       <c r="L79" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -7629,16 +7629,16 @@
         <v>5</v>
       </c>
       <c r="I80" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="J80" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K80" t="s">
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -7667,7 +7667,7 @@
         <v>5</v>
       </c>
       <c r="I81" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="J81" t="s">
         <v>837</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -7705,7 +7705,7 @@
         <v>8</v>
       </c>
       <c r="I82" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="J82" t="s">
         <v>840</v>
@@ -7714,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -7746,13 +7746,13 @@
         <v>689</v>
       </c>
       <c r="J83" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K83" t="s">
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -7784,13 +7784,13 @@
         <v>648</v>
       </c>
       <c r="J84" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K84" t="s">
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -7819,10 +7819,10 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="J85" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K85" t="s">
         <v>0</v>
@@ -7857,16 +7857,16 @@
         <v>11</v>
       </c>
       <c r="I86" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="J86" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="K86" t="s">
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -7895,16 +7895,16 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="J87" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="K87" t="s">
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -7933,16 +7933,16 @@
         <v>11</v>
       </c>
       <c r="I88" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="J88" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K88" t="s">
         <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -7971,7 +7971,7 @@
         <v>5</v>
       </c>
       <c r="I89" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="J89" t="s">
         <v>844</v>
@@ -7980,7 +7980,7 @@
         <v>46</v>
       </c>
       <c r="L89" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -8009,16 +8009,16 @@
         <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="J90" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K90" t="s">
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -8047,16 +8047,16 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="J91" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="K91" t="s">
         <v>46</v>
       </c>
       <c r="L91" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -8085,7 +8085,7 @@
         <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="J92" t="s">
         <v>859</v>
@@ -8094,7 +8094,7 @@
         <v>46</v>
       </c>
       <c r="L92" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
@@ -8123,16 +8123,16 @@
         <v>3</v>
       </c>
       <c r="I93" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="J93" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K93" t="s">
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
@@ -8164,13 +8164,13 @@
         <v>47</v>
       </c>
       <c r="J94" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="K94" t="s">
         <v>46</v>
       </c>
       <c r="L94" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -8199,16 +8199,16 @@
         <v>5</v>
       </c>
       <c r="I95" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="J95" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="K95" t="s">
         <v>46</v>
       </c>
       <c r="L95" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -8237,16 +8237,16 @@
         <v>5</v>
       </c>
       <c r="I96" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="J96" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K96" t="s">
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
@@ -8275,16 +8275,16 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="J97" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="K97" t="s">
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -8313,16 +8313,16 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="J98" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="K98" t="s">
         <v>46</v>
       </c>
       <c r="L98" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -8351,16 +8351,16 @@
         <v>4</v>
       </c>
       <c r="I99" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="J99" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K99" t="s">
         <v>46</v>
       </c>
       <c r="L99" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -8389,7 +8389,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="J100" t="s">
         <v>853</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
@@ -8427,16 +8427,16 @@
         <v>31</v>
       </c>
       <c r="I101" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="J101" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="K101" t="s">
         <v>46</v>
       </c>
       <c r="L101" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -8465,16 +8465,16 @@
         <v>6</v>
       </c>
       <c r="I102" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="J102" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="K102" t="s">
         <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -8503,16 +8503,16 @@
         <v>14</v>
       </c>
       <c r="I103" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="J103" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K103" t="s">
         <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -8541,16 +8541,16 @@
         <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="J104" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="K104" t="s">
         <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -8579,16 +8579,16 @@
         <v>4</v>
       </c>
       <c r="I105" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="J105" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="K105" t="s">
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
@@ -8617,7 +8617,7 @@
         <v>31</v>
       </c>
       <c r="I106" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="J106" t="s">
         <v>818</v>
@@ -8626,7 +8626,7 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
@@ -8658,13 +8658,13 @@
         <v>47</v>
       </c>
       <c r="J107" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="K107" t="s">
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
@@ -8693,16 +8693,16 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J108" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="K108" t="s">
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -8731,16 +8731,16 @@
         <v>39</v>
       </c>
       <c r="I109" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J109" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="K109" t="s">
         <v>46</v>
       </c>
       <c r="L109" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -8769,16 +8769,16 @@
         <v>28</v>
       </c>
       <c r="I110" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="J110" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="K110" t="s">
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
@@ -8810,13 +8810,13 @@
         <v>134</v>
       </c>
       <c r="J111" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="K111" t="s">
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -8848,13 +8848,13 @@
         <v>47</v>
       </c>
       <c r="J112" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="K112" t="s">
         <v>46</v>
       </c>
       <c r="L112" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -8883,16 +8883,16 @@
         <v>16</v>
       </c>
       <c r="I113" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="J113" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="K113" t="s">
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -8921,7 +8921,7 @@
         <v>5</v>
       </c>
       <c r="I114" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="J114" t="s">
         <v>832</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -8959,16 +8959,16 @@
         <v>5</v>
       </c>
       <c r="I115" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="J115" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="K115" t="s">
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -9035,16 +9035,16 @@
         <v>7</v>
       </c>
       <c r="I117" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="J117" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="K117" t="s">
         <v>46</v>
       </c>
       <c r="L117" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -9073,16 +9073,16 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="J118" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="K118" t="s">
         <v>46</v>
       </c>
       <c r="L118" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -9111,16 +9111,16 @@
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="J119" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="K119" t="s">
         <v>46</v>
       </c>
       <c r="L119" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -9149,16 +9149,16 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="J120" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="K120" t="s">
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -9187,16 +9187,16 @@
         <v>5</v>
       </c>
       <c r="I121" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="J121" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K121" t="s">
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -9225,7 +9225,7 @@
         <v>21</v>
       </c>
       <c r="I122" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="J122" t="s">
         <v>828</v>
@@ -9234,7 +9234,7 @@
         <v>46</v>
       </c>
       <c r="L122" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -9263,16 +9263,16 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="J123" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="K123" t="s">
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -9301,16 +9301,16 @@
         <v>5</v>
       </c>
       <c r="I124" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="J124" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="K124" t="s">
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -9342,13 +9342,13 @@
         <v>47</v>
       </c>
       <c r="J125" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="K125" t="s">
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -9377,7 +9377,7 @@
         <v>9</v>
       </c>
       <c r="I126" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="J126" t="s">
         <v>815</v>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -9418,13 +9418,13 @@
         <v>224</v>
       </c>
       <c r="J127" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="K127" t="s">
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -9453,16 +9453,16 @@
         <v>3</v>
       </c>
       <c r="I128" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="J128" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="K128" t="s">
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
@@ -9491,7 +9491,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="J129" t="s">
         <v>870</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
@@ -9532,13 +9532,13 @@
         <v>777</v>
       </c>
       <c r="J130" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="K130" t="s">
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
@@ -9576,7 +9576,7 @@
         <v>46</v>
       </c>
       <c r="L131" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
@@ -9605,16 +9605,16 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="J132" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="K132" t="s">
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
@@ -9643,16 +9643,16 @@
         <v>6</v>
       </c>
       <c r="I133" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="J133" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="K133" t="s">
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
@@ -9681,7 +9681,7 @@
         <v>13</v>
       </c>
       <c r="I134" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="J134" t="s">
         <v>836</v>
@@ -9690,7 +9690,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -9719,16 +9719,16 @@
         <v>5</v>
       </c>
       <c r="I135" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="J135" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="K135" t="s">
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
@@ -9757,16 +9757,16 @@
         <v>22</v>
       </c>
       <c r="I136" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="J136" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="K136" t="s">
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
@@ -9795,16 +9795,16 @@
         <v>5</v>
       </c>
       <c r="I137" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J137" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="K137" t="s">
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
@@ -9833,7 +9833,7 @@
         <v>7</v>
       </c>
       <c r="I138" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="J138" t="s">
         <v>867</v>
@@ -9842,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
@@ -9871,16 +9871,16 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="J139" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="K139" t="s">
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
@@ -9909,7 +9909,7 @@
         <v>10</v>
       </c>
       <c r="I140" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="J140" t="s">
         <v>857</v>
@@ -9918,7 +9918,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -9947,7 +9947,7 @@
         <v>5</v>
       </c>
       <c r="I141" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="J141" t="s">
         <v>847</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
@@ -9994,7 +9994,7 @@
         <v>46</v>
       </c>
       <c r="L142" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
@@ -10026,13 +10026,13 @@
         <v>47</v>
       </c>
       <c r="J143" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="K143" t="s">
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -10061,7 +10061,7 @@
         <v>4</v>
       </c>
       <c r="I144" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="J144" t="s">
         <v>826</v>
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -10099,16 +10099,16 @@
         <v>10</v>
       </c>
       <c r="I145" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="J145" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="K145" t="s">
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -10140,13 +10140,13 @@
         <v>47</v>
       </c>
       <c r="J146" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="K146" t="s">
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -10175,16 +10175,16 @@
         <v>6</v>
       </c>
       <c r="I147" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="J147" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K147" t="s">
         <v>46</v>
       </c>
       <c r="L147" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -10213,16 +10213,16 @@
         <v>5</v>
       </c>
       <c r="I148" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="J148" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="K148" t="s">
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -10251,7 +10251,7 @@
         <v>14</v>
       </c>
       <c r="I149" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="J149" t="s">
         <v>824</v>
@@ -10260,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -10289,16 +10289,16 @@
         <v>13</v>
       </c>
       <c r="I150" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="J150" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="K150" t="s">
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -10327,16 +10327,16 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="J151" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="K151" t="s">
         <v>46</v>
       </c>
       <c r="L151" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -10365,16 +10365,16 @@
         <v>11</v>
       </c>
       <c r="I152" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="J152" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="K152" t="s">
         <v>46</v>
       </c>
       <c r="L152" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -10403,16 +10403,16 @@
         <v>5</v>
       </c>
       <c r="I153" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="J153" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="K153" t="s">
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -10441,7 +10441,7 @@
         <v>4</v>
       </c>
       <c r="I154" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="J154" t="s">
         <v>827</v>
@@ -10450,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -10488,7 +10488,7 @@
         <v>46</v>
       </c>
       <c r="L155" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -10520,13 +10520,13 @@
         <v>47</v>
       </c>
       <c r="J156" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="K156" t="s">
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -10555,16 +10555,16 @@
         <v>7</v>
       </c>
       <c r="I157" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="J157" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="K157" t="s">
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -10593,7 +10593,7 @@
         <v>10</v>
       </c>
       <c r="I158" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="J158" t="s">
         <v>814</v>
@@ -10602,7 +10602,7 @@
         <v>46</v>
       </c>
       <c r="L158" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -10631,16 +10631,16 @@
         <v>10</v>
       </c>
       <c r="I159" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="J159" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="K159" t="s">
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -10669,16 +10669,16 @@
         <v>14</v>
       </c>
       <c r="I160" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="J160" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="K160" t="s">
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
@@ -10707,16 +10707,16 @@
         <v>25</v>
       </c>
       <c r="I161" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="J161" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="K161" t="s">
         <v>46</v>
       </c>
       <c r="L161" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
@@ -10754,7 +10754,7 @@
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
@@ -10783,7 +10783,7 @@
         <v>6</v>
       </c>
       <c r="I163" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="J163" t="s">
         <v>821</v>
@@ -10792,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -10821,7 +10821,7 @@
         <v>9</v>
       </c>
       <c r="I164" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="J164" t="s">
         <v>841</v>
@@ -10830,7 +10830,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -10859,7 +10859,7 @@
         <v>8</v>
       </c>
       <c r="I165" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="J165" t="s">
         <v>858</v>
@@ -10868,7 +10868,7 @@
         <v>46</v>
       </c>
       <c r="L165" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -10897,7 +10897,7 @@
         <v>6</v>
       </c>
       <c r="I166" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="J166" t="s">
         <v>863</v>
@@ -10906,7 +10906,7 @@
         <v>46</v>
       </c>
       <c r="L166" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
@@ -10935,16 +10935,16 @@
         <v>14</v>
       </c>
       <c r="I167" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="J167" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="K167" t="s">
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
@@ -10973,7 +10973,7 @@
         <v>7</v>
       </c>
       <c r="I168" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="J168" t="s">
         <v>860</v>
@@ -10982,7 +10982,7 @@
         <v>46</v>
       </c>
       <c r="L168" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
@@ -11011,7 +11011,7 @@
         <v>5</v>
       </c>
       <c r="I169" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="J169" t="s">
         <v>864</v>
@@ -11020,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -11049,16 +11049,16 @@
         <v>6</v>
       </c>
       <c r="I170" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="J170" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="K170" t="s">
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -11096,7 +11096,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -11125,16 +11125,16 @@
         <v>5</v>
       </c>
       <c r="I172" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="J172" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K172" t="s">
         <v>46</v>
       </c>
       <c r="L172" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -11163,16 +11163,16 @@
         <v>4</v>
       </c>
       <c r="I173" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="J173" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="K173" t="s">
         <v>46</v>
       </c>
       <c r="L173" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -11201,16 +11201,16 @@
         <v>4</v>
       </c>
       <c r="I174" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="J174" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="K174" t="s">
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
@@ -11239,16 +11239,16 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="J175" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="K175" t="s">
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
@@ -11315,16 +11315,16 @@
         <v>7</v>
       </c>
       <c r="I177" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="J177" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K177" t="s">
         <v>46</v>
       </c>
       <c r="L177" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -11356,13 +11356,13 @@
         <v>29</v>
       </c>
       <c r="J178" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="K178" t="s">
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -11391,7 +11391,7 @@
         <v>5</v>
       </c>
       <c r="I179" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="J179" t="s">
         <v>854</v>
@@ -11400,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
@@ -11429,16 +11429,16 @@
         <v>6</v>
       </c>
       <c r="I180" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="J180" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="K180" t="s">
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -11467,7 +11467,7 @@
         <v>11</v>
       </c>
       <c r="I181" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="J181" t="s">
         <v>831</v>
@@ -11476,7 +11476,7 @@
         <v>46</v>
       </c>
       <c r="L181" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -11505,16 +11505,16 @@
         <v>8</v>
       </c>
       <c r="I182" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="J182" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K182" t="s">
         <v>0</v>
       </c>
       <c r="L182" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -11543,7 +11543,7 @@
         <v>6</v>
       </c>
       <c r="I183" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="J183" t="s">
         <v>816</v>
@@ -11552,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="L183" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
@@ -11581,10 +11581,10 @@
         <v>10</v>
       </c>
       <c r="I184" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="J184" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="K184" t="s">
         <v>0</v>
@@ -11619,16 +11619,16 @@
         <v>7</v>
       </c>
       <c r="I185" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="J185" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="K185" t="s">
         <v>46</v>
       </c>
       <c r="L185" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -11657,16 +11657,16 @@
         <v>8</v>
       </c>
       <c r="I186" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="J186" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="K186" t="s">
         <v>46</v>
       </c>
       <c r="L186" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -11698,13 +11698,13 @@
         <v>47</v>
       </c>
       <c r="J187" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="K187" t="s">
         <v>0</v>
       </c>
       <c r="L187" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
@@ -11733,16 +11733,16 @@
         <v>5</v>
       </c>
       <c r="I188" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="J188" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="K188" t="s">
         <v>46</v>
       </c>
       <c r="L188" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -11771,7 +11771,7 @@
         <v>6</v>
       </c>
       <c r="I189" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="J189" t="s">
         <v>849</v>
@@ -11780,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="L189" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -11809,16 +11809,16 @@
         <v>4</v>
       </c>
       <c r="I190" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="J190" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="K190" t="s">
         <v>0</v>
       </c>
       <c r="L190" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
@@ -11847,16 +11847,16 @@
         <v>4</v>
       </c>
       <c r="I191" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="J191" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="K191" t="s">
         <v>46</v>
       </c>
       <c r="L191" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -11885,16 +11885,16 @@
         <v>6</v>
       </c>
       <c r="I192" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="J192" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="K192" t="s">
         <v>0</v>
       </c>
       <c r="L192" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
@@ -11932,7 +11932,7 @@
         <v>46</v>
       </c>
       <c r="L193" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -11961,16 +11961,16 @@
         <v>17</v>
       </c>
       <c r="I194" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="J194" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="K194" t="s">
         <v>0</v>
       </c>
       <c r="L194" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -11999,16 +11999,16 @@
         <v>4</v>
       </c>
       <c r="I195" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="J195" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="K195" t="s">
         <v>0</v>
       </c>
       <c r="L195" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -12037,16 +12037,16 @@
         <v>7</v>
       </c>
       <c r="I196" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="J196" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K196" t="s">
         <v>46</v>
       </c>
       <c r="L196" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.3">
@@ -12078,13 +12078,13 @@
         <v>47</v>
       </c>
       <c r="J197" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K197" t="s">
         <v>0</v>
       </c>
       <c r="L197" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -12113,16 +12113,16 @@
         <v>5</v>
       </c>
       <c r="I198" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="J198" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="K198" t="s">
         <v>46</v>
       </c>
       <c r="L198" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.3">
@@ -12151,16 +12151,16 @@
         <v>5</v>
       </c>
       <c r="I199" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="J199" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K199" t="s">
         <v>0</v>
       </c>
       <c r="L199" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
@@ -12189,7 +12189,7 @@
         <v>5</v>
       </c>
       <c r="I200" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="J200" t="s">
         <v>842</v>
@@ -12198,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="L200" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -12227,16 +12227,16 @@
         <v>5</v>
       </c>
       <c r="I201" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="J201" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K201" t="s">
         <v>46</v>
       </c>
       <c r="L201" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
@@ -12265,16 +12265,16 @@
         <v>3</v>
       </c>
       <c r="I202" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="J202" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K202" t="s">
         <v>46</v>
       </c>
       <c r="L202" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -12306,13 +12306,13 @@
         <v>112</v>
       </c>
       <c r="J203" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="K203" t="s">
         <v>0</v>
       </c>
       <c r="L203" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -12341,7 +12341,7 @@
         <v>15</v>
       </c>
       <c r="I204" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="J204" t="s">
         <v>872</v>
@@ -12350,7 +12350,7 @@
         <v>46</v>
       </c>
       <c r="L204" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -12379,16 +12379,16 @@
         <v>4</v>
       </c>
       <c r="I205" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="J205" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="K205" t="s">
         <v>46</v>
       </c>
       <c r="L205" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -12417,7 +12417,7 @@
         <v>3</v>
       </c>
       <c r="I206" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="J206" t="s">
         <v>829</v>
@@ -12426,7 +12426,7 @@
         <v>46</v>
       </c>
       <c r="L206" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
   </sheetData>

--- a/MadridEdG.xlsx
+++ b/MadridEdG.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\OneDrive\Desktop\Vincenzo\1.Dottorato\progetti valutazione\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elviracelardi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3084CE-B35B-43D0-A528-9E436C144339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3C2063-1A13-5848-B46C-082C4FD7B907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ES" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ES!$A$1:$J$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ES!$A$1:$J$180</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="1222">
   <si>
     <t>Sì</t>
   </si>
@@ -269,18 +269,6 @@
     <t>Crotone</t>
   </si>
   <si>
-    <t>D'ANGELO LUCIANO MARIA</t>
-  </si>
-  <si>
-    <t>PULCHERRIMA RES</t>
-  </si>
-  <si>
-    <t>PARTNER</t>
-  </si>
-  <si>
-    <t>Il genio di Palermo. La bellezza salverà il mondo.</t>
-  </si>
-  <si>
     <t>Palermo</t>
   </si>
   <si>
@@ -326,30 +314,6 @@
     <t>I.O. CR.E.S.CO: - Innovazione e Occupazione per la CRescita Economica Sostenibile e la Coesione</t>
   </si>
   <si>
-    <t>Marta Giammaria</t>
-  </si>
-  <si>
-    <t>UISP Nazionale</t>
-  </si>
-  <si>
-    <t>Responsabile Ufficio Progetti nazionale</t>
-  </si>
-  <si>
-    <t>Terzo Tempo</t>
-  </si>
-  <si>
-    <t>ALESSANDRO BERTOLINO</t>
-  </si>
-  <si>
-    <t>UNIVERSITA' DEGLI STUDI DI BARI ALDO MORO - DIPARTIEMNTO DI SCIENZE MEDICHE DI BASE NEUROSCIENZE E ORGANI DI SENSO</t>
-  </si>
-  <si>
-    <t>DIRETTORE DI DIPARTIMENTO</t>
-  </si>
-  <si>
-    <t>Sviluppo di un modello per la stadiazione della schizofrenia con relative prospettive prognostiche e di risposta a trattamenti farmacologici e riabilitativi</t>
-  </si>
-  <si>
     <t>Elvira De Leonibus</t>
   </si>
   <si>
@@ -362,33 +326,6 @@
     <t>Nuovi marker per la demenza: un approccio multidisciplinare</t>
   </si>
   <si>
-    <t>Raffaele Velotta</t>
-  </si>
-  <si>
-    <t>Universitò di Napoli - Dipartimento di Fisica</t>
-  </si>
-  <si>
-    <t>Professore</t>
-  </si>
-  <si>
-    <t>Biosensori piezoelettrici a risposta in tempo reale per applicazioni ambientali e agro-alimentari</t>
-  </si>
-  <si>
-    <t>1) relaciones de colaboración científica aún activas. 2) relaciones con el tercer sector aún activas. 3) personal que regresó con el proyecto y ahora está empleado de forma permanente. 4) personal que creció con el proyecto y está por iniciar su carrera académica.</t>
-  </si>
-  <si>
-    <t>Delia Picone</t>
-  </si>
-  <si>
-    <t>Università degli Studi di Napoli Federico II</t>
-  </si>
-  <si>
-    <t>Professore Associato</t>
-  </si>
-  <si>
-    <t>Produzione di dolcificanti ipocalorici da piante mediterranee</t>
-  </si>
-  <si>
     <t>Michele Saviano</t>
   </si>
   <si>
@@ -441,18 +378,6 @@
   </si>
   <si>
     <t>la ubicación del inmueble objeto de intervención y alrededor del cual se desarrollaron las actividades, se ha convertido en un punto de referencia para algunas actividades culturales realizadas en la zona</t>
-  </si>
-  <si>
-    <t>Luca Cumbo</t>
-  </si>
-  <si>
-    <t>Soc. Coop. Soc. Cresm</t>
-  </si>
-  <si>
-    <t>consigliere</t>
-  </si>
-  <si>
-    <t>Comunità Urbane Solidali</t>
   </si>
   <si>
     <t>Amico Dolci</t>
@@ -642,15 +567,6 @@
     <t>Ogliastra</t>
   </si>
   <si>
-    <t>Vittorio De Vitis</t>
-  </si>
-  <si>
-    <t>WWF Salento</t>
-  </si>
-  <si>
-    <t>Erre alla enne [Raccogli, Recupera, Riusa, Ricicla, Ripara, Regala]</t>
-  </si>
-  <si>
     <t>Stefano Iandiorio</t>
   </si>
   <si>
@@ -738,18 +654,9 @@
     <t>Centro per la sostenibilità</t>
   </si>
   <si>
-    <t>Luigi Guacci</t>
-  </si>
-  <si>
-    <t>Santa Teresa Cooperativa Sociale</t>
-  </si>
-  <si>
     <t>Legale Rappresentante</t>
   </si>
   <si>
-    <t>Wa.Re Lab</t>
-  </si>
-  <si>
     <t>QUARTA MAURO GIUSEPPE</t>
   </si>
   <si>
@@ -843,18 +750,6 @@
     <t>Liberare la speranza</t>
   </si>
   <si>
-    <t>Iside Rita Stevanin</t>
-  </si>
-  <si>
-    <t>Soc Coop Consortile Andalas de Amistade</t>
-  </si>
-  <si>
-    <t>Turismo responsabilmente</t>
-  </si>
-  <si>
-    <t>Sassari</t>
-  </si>
-  <si>
     <t>francesca magliulo</t>
   </si>
   <si>
@@ -921,15 +816,6 @@
     <t>Pescaturismo con i ragazzi di Napoli</t>
   </si>
   <si>
-    <t>Indice Silvio</t>
-  </si>
-  <si>
-    <t>Prospettiva Futuro Soc Coop Sociale</t>
-  </si>
-  <si>
-    <t>Oltre i confini</t>
-  </si>
-  <si>
     <t>Sara Mezzetti</t>
   </si>
   <si>
@@ -952,18 +838,6 @@
   </si>
   <si>
     <t>Spazio Gioco Villa Federico</t>
-  </si>
-  <si>
-    <t>Antonio Lo Zopone</t>
-  </si>
-  <si>
-    <t>Società Cooperativa Sociale "L'Uomo e il Legno"</t>
-  </si>
-  <si>
-    <t>Responsabile Ufficio Progetti e nuove iniziative</t>
-  </si>
-  <si>
-    <t>Valorizziamo Scampia</t>
   </si>
   <si>
     <t>Barbara Pierro</t>
@@ -1057,9 +931,6 @@
 Libertà</t>
   </si>
   <si>
-    <t>Sinistra duemila</t>
-  </si>
-  <si>
     <t>Francesco Iandolo</t>
   </si>
   <si>
@@ -1285,15 +1156,6 @@
     <t>Barletta-Andria-Trani</t>
   </si>
   <si>
-    <t>Gisella Florio</t>
-  </si>
-  <si>
-    <t>Radio 180 cambia la musica</t>
-  </si>
-  <si>
-    <t>"Pazzi per la radio 2 - fuori la voce"</t>
-  </si>
-  <si>
     <t>Caterina Iuliano</t>
   </si>
   <si>
@@ -1327,18 +1189,6 @@
     <t>Sartoria sociale</t>
   </si>
   <si>
-    <t>ANTONIO MONTANARO</t>
-  </si>
-  <si>
-    <t>U.N.I.VO.C. ONLUS SEZIONE DI BARI</t>
-  </si>
-  <si>
-    <t>PRESIDENTE SEZIONALE</t>
-  </si>
-  <si>
-    <t>Arte musica e sport per l’integrazione dei non vedenti e dei disabili psicofisici   per sostenere e far crescere il volontariato e la rete</t>
-  </si>
-  <si>
     <t>Antonio Farina</t>
   </si>
   <si>
@@ -1486,18 +1336,9 @@
     <t>Insieme si può</t>
   </si>
   <si>
-    <t>Francesco Milone</t>
-  </si>
-  <si>
-    <t>Sos per la Vita</t>
-  </si>
-  <si>
     <t>VOLontario</t>
   </si>
   <si>
-    <t>Migranti informa</t>
-  </si>
-  <si>
     <t>Andrea Arnone</t>
   </si>
   <si>
@@ -1507,18 +1348,6 @@
     <t>Reti Anteas per trasformare lo spreco alimentare in risorsa contro la povertà e la vulnerabilità delle famiglie</t>
   </si>
   <si>
-    <t>Mariangela Lomuscio</t>
-  </si>
-  <si>
-    <t>Una famiglia in più</t>
-  </si>
-  <si>
-    <t>Coordinatrice psicologa</t>
-  </si>
-  <si>
-    <t>Rete attiva</t>
-  </si>
-  <si>
     <t>Annarita Candelli</t>
   </si>
   <si>
@@ -1627,15 +1456,6 @@
     <t>Sentinelle della fragilità</t>
   </si>
   <si>
-    <t>Antonio Bamonte</t>
-  </si>
-  <si>
-    <t>Protezione Civile Bellizzi</t>
-  </si>
-  <si>
-    <t>coordinamento e amministrazione</t>
-  </si>
-  <si>
     <t>Donatella Pasquale</t>
   </si>
   <si>
@@ -1651,27 +1471,6 @@
     <t>el cambio es parcialmente detectable porque los destinatarios eran de escuelas secundarias de dos años. de 1er grado. lo logrado tuvo un impacto positivo en el camino escolar y relacional de los menores. los profesores, en contacto con los estudiantes, notaron una mejora. en concreto: un par de menores han realizado estudios de bachillerato con excelentes resultados, a pesar de tener bajas calificaciones en el trienio; otro grupo, con dificultades relacionales, mejoró el grado de inclusión.</t>
   </si>
   <si>
-    <t>Pasquale  D'Angelo</t>
-  </si>
-  <si>
-    <t>Volontariato Sannio</t>
-  </si>
-  <si>
-    <t>Parkambiente</t>
-  </si>
-  <si>
-    <t>Valentino Pudduq</t>
-  </si>
-  <si>
-    <t>Rp Sardegna Onlus</t>
-  </si>
-  <si>
-    <t>Collaboratore/VOLontario</t>
-  </si>
-  <si>
-    <t>Il pentalibro</t>
-  </si>
-  <si>
     <t>Immacolata Lettieri</t>
   </si>
   <si>
@@ -1711,15 +1510,6 @@
     <t>sinergia institucional</t>
   </si>
   <si>
-    <t>FILIBERTO PARENTE</t>
-  </si>
-  <si>
-    <t>SIMPOSIO ACLI</t>
-  </si>
-  <si>
-    <t>"Lettera 32"</t>
-  </si>
-  <si>
     <t>Romolo De Pierro</t>
   </si>
   <si>
@@ -1813,15 +1603,6 @@
     <t>Campania augusta. Eccellenze campane tra storia e gusto.</t>
   </si>
   <si>
-    <t>Giuseppe Priore</t>
-  </si>
-  <si>
-    <t>protezione civile gruppo lucano</t>
-  </si>
-  <si>
-    <t>Potenziamo il search and rescue team</t>
-  </si>
-  <si>
     <t>Gerarda Giacinti</t>
   </si>
   <si>
@@ -1873,12 +1654,6 @@
     <t>Chiaiatime</t>
   </si>
   <si>
-    <t>membro del consiglio direttivo</t>
-  </si>
-  <si>
-    <t>Identità in rete</t>
-  </si>
-  <si>
     <t>Nunzia Nappo</t>
   </si>
   <si>
@@ -2038,18 +1813,6 @@
     <t>Le  chiavi di casa</t>
   </si>
   <si>
-    <t>Silvana Leonforte</t>
-  </si>
-  <si>
-    <t>Terra amica Onlus</t>
-  </si>
-  <si>
-    <t>VOLontaria</t>
-  </si>
-  <si>
-    <t>Il camper del sorriso</t>
-  </si>
-  <si>
     <t>PIETRO IACOVONE</t>
   </si>
   <si>
@@ -2176,18 +1939,6 @@
     <t>Includi_amo</t>
   </si>
   <si>
-    <t>Rosangela Polichiso</t>
-  </si>
-  <si>
-    <t>Servizio Vigilanza Ambientale Legabiente Potenza</t>
-  </si>
-  <si>
-    <t>Responsabile attività</t>
-  </si>
-  <si>
-    <t>Volontari naturalmente in rete 2</t>
-  </si>
-  <si>
     <t>GABRIELE SORACE</t>
   </si>
   <si>
@@ -2374,21 +2125,6 @@
     <t>el proyecto generó y/o acentuó la cohesión de las redes territoriales de organizaciones de personas con discapacidad y fortaleció su capacidad de relacionarse con los responsables de políticas y servicios, calificando el apoyo y la resolución de problemas a favor de los destinatarios directos.</t>
   </si>
   <si>
-    <t>DIMITRI PIBIRI</t>
-  </si>
-  <si>
-    <t>SOC. COOP. SOCIALE LA CLESSIDRA</t>
-  </si>
-  <si>
-    <t>LEGALE RAPPRESENTANTE</t>
-  </si>
-  <si>
-    <t>Frequenza200</t>
-  </si>
-  <si>
-    <t>los beneficiarios continuaron en altos porcentajes con su carrera escolar sin registrar fenómenos de deserción.</t>
-  </si>
-  <si>
     <t>Noemi Caputo</t>
   </si>
   <si>
@@ -2410,27 +2146,6 @@
     <t>Dalla periferia al “Centro”</t>
   </si>
   <si>
-    <t>Sandro Simon Palmieri</t>
-  </si>
-  <si>
-    <t>Sport Senza Frontiere Onlus</t>
-  </si>
-  <si>
-    <t>Sport è benessere</t>
-  </si>
-  <si>
-    <t>Daniele Giliberti</t>
-  </si>
-  <si>
-    <t>Vivi Sano Onlus</t>
-  </si>
-  <si>
-    <t>Amministratore Delegato</t>
-  </si>
-  <si>
-    <t>Il parco della salute</t>
-  </si>
-  <si>
     <t>Elisabetta Salvati</t>
   </si>
   <si>
@@ -2488,9 +2203,6 @@
     <t>colaboramos realizando actividades en el centro divo con actividades de apoyo a familias y personas con discapacidad</t>
   </si>
   <si>
-    <t>intercambio de información e integración en las actividades derivadas del proyecto</t>
-  </si>
-  <si>
     <t>contacto continuo con socios, colaboración con reuniones para continuar el camino emprendido, estimulación de los aspectos sociales del territorio</t>
   </si>
   <si>
@@ -2527,15 +2239,9 @@
     <t>formulación de políticas locales incidencia política coplanificación participación en órganos colegiados del tercer sector colaboración en la gestión de las estructuras creadas gracias al proyecto</t>
   </si>
   <si>
-    <t>ver puntos anteriores</t>
-  </si>
-  <si>
     <t>proyectos de educación ambiental gestión de servicios para pequeñas iniciativas culturales y sociales</t>
   </si>
   <si>
-    <t>proyecto de intervención social de emergencia cursos de orientación laboral financiados por el distrito sociosanitario n con fondos del l en curso desde diciembre propuesta de proyecto sobre la licitación de prisiones fundadas con el sur convenio con ipm de catania bicocca para actividades educativas udepe catania para la activación de prácticas de reinserción trabajando</t>
-  </si>
-  <si>
     <t>con el ayuntamiento de vita y castelvetrano el consorcio solidario tiene en marcha proyectos dirigidos a familias en riesgo social actividades de asistencia a personas mayores con discapacidad y menores con crem durante el transcurso de hemos concluido proyectos dirigidos a jóvenes de la zona de la provincia de trapani sobre cuestiones de legalidad, participación activa y creatividad juvenil</t>
   </si>
   <si>
@@ -2566,9 +2272,6 @@
     <t>colabora con los jardines de eva arci tienda solidaria etc promoción cultural plantación de árboles etc</t>
   </si>
   <si>
-    <t>estamos trabajando juntos para la aprobación del reglamento de administración compartida nos reunimos una vez al mes para realizar iniciativas en la zona en este periodo el tema que estamos trabajando es el de la legalidad otro proyecto realizado es el de escuelas abiertas</t>
-  </si>
-  <si>
     <t>con todas las organizaciones colaboradoras estamos llevando a cabo el proyecto gens financiado por la fundación con el sur y otro proyecto de sensibilización sobre el tema de la violencia contra las mujeres</t>
   </si>
   <si>
@@ -2587,9 +2290,6 @@
     <t>participación conjunta en la planificación</t>
   </si>
   <si>
-    <t>un servicio continuo de acompañamiento e información para niños incomprendidos algunos socios para proyectos de acogida de familias sirias con casas al sol para la familia que quiere seguir los primeros pasos de sus hijos para la familia que no sabe cuáles son los beneficios sociales locales para la familia que busca una empleada doméstica una cuidadora o niñera para la familia que elige la correcta gestión de la relación laboral doméstica para la familia que quiere dedicar más tiempo a sus seres queridos</t>
-  </si>
-  <si>
     <t>acuerdos de colaboración en otros proyectos reuniones periódicas para intercambiar buenas prácticas de ayuda mutua</t>
   </si>
   <si>
@@ -2653,12 +2353,6 @@
     <t>el proyecto se combinó con los objetivos de favo de crear sinergias entre asociaciones de voluntariado posicionándose como representante a nivel institucional de las nuevas necesidades y nuevos derechos de las personas que se enfrentan al cáncer; la federación interpreta el deseo de las asociaciones de dar voz a los pacientes para promoverlos. a nivel nacional y local iniciativas que promuevan la rehabilitación, el bienestar psicológico, la calidad de vida y la protección jurídica de quienes enferman y sus familias, salvaguardando la competencia específica y la autonomía de gestión de las organizaciones. cómo favo continúa interactuando con los socios del proyecto con actividades de sensibilización, formación, etc.</t>
   </si>
   <si>
-    <t>la colaboración continúa a través de la gestión de los servicios educativos confiados por las administraciones municipales que a menudo han adoptado las metodologías y prácticas previstas por el proyecto original</t>
-  </si>
-  <si>
-    <t>actividades gratuitas de promoción de la salud, escuelas sociodeportivas, talleres y eventos inclusivos</t>
-  </si>
-  <si>
     <t>¿Considera que el proyecto ha contribuido a generar un cambio positivo en el contexto de referencia desde la conclusión de las actividades hasta hoy?</t>
   </si>
   <si>
@@ -3193,81 +2887,6 @@
     <t>giovanni bifezzi fue detenido en la prisión de palmi en 01 por diversos delitos. en 019 giovanni bifezzi, contratado con contrato indefinido como "cuidador", es la prueba de fuego del cambio. el museo era una estructura en ruinas. ahora es un museo con un patrimonio importante, con muestras de valor absoluto. la desconfianza se ha transformado en consenso y en modelo de referencia. en 01, cuando se inició el proyecto, las acusaciones eran de dos tipos: 1) ¿quién eres tú, una cooperativa social que hasta ahora se ocupaba de los discapacitados, de los ancianos y ahora quiere ocuparse de la cultura y de pitágoras? segunda nota, el parque y el museo están en un completo desastre, todo ha sido vandalizado y destruido: ventanas, red eléctrica, sistema de riego. es imposible restaurar todo esto y con este tipo de administración pública. la realidad ha demostrado lo contrario: el consenso y el compartir han desencadenado procesos concretos. la red se ha visto reforzada por un grupo científico de alto nivel que apoya las actividades: en el ámbito museístico gabriel allevi, creador entre otras cosas del primer museo cristiano en jerusalén. alessandro colombo, representante de las empresas de diseño italianas en el mundo. los científicos gouthier, disieno, ferrari, chiriano, guerraggio… los historiadores del arte baccaglini, acquesta, rizzuto. la cuestión principal es la relación con el público y con el organismo propietario del parque, es decir, el municipio de crotone. la crisis y el bloqueo que el tribunal de cuentas ha impuesto a la actividad administrativa del ayuntamiento, de hecho, han bloqueado cualquier informe de mejora de las condiciones estructurales del parque.</t>
   </si>
   <si>
-    <t>como se mencionó anteriormente, se encontraron algunas dificultades con el cambio de dirección. hasta ese momento, los alumnos que participaron en las actividades tuvieron la oportunidad de trabajar en los distintos laboratorios creados (modelado e impresión 3d, proa...) y de participar en la construcción del primer barco impreso íntegramente en 3d. esta serie de actividades tuvo mucho éxito, tanto es así que los talleres continuaron en otros lugares.</t>
-  </si>
-  <si>
-    <t>el proyecto ha favorecido la continuación de la actividad domiciliaria de ant a lo largo de los años, ayudando a arraigarnos aún más en el territorio. este aspecto también ha favorecido un objetivo importante alcanzado recientemente, que avanza con vistas a una buena relación con las instituciones locales, para la apertura de un nuevo hospicio con un equipo de ant, en viggiano.</t>
-  </si>
-  <si>
-    <t>el proyecto smile camper interceptó una importante necesidad de la población al punto de generar una demanda superior a la que fue posible dar respuesta con el servicio diseñado, consistente en una ambulancia dental local que llegó a la población más vulnerable en lugares estratégicos de referencia, facilitando para que las personas necesitadas pudieran acceder a la atención dental. a través de la atención odontológica y la entrega de prótesis a los destinatarios, el servicio ha obtenido resultados positivos que también han activado una red de asociaciones que se han puesto en contacto con los representantes del proyecto para sumarse.</t>
-  </si>
-  <si>
-    <t>la promoción de las actividades realizadas con el proyecto aut side mare aperto sirvió para concienciar sobre las posibilidades de potenciar los recursos y habilidades de los niños que padecen trastorno autista. las actividades realizadas y promovidas a través de canales de comunicación han comenzado a concientizar a la comunidad a la que pertenecen respecto del malestar expresado por los beneficiarios del proyecto.</t>
-  </si>
-  <si>
-    <t>destaca el curso de informática realizado para personas mayores sobre el uso 'solidario' del coche. no hubo reuniones con las distintas escuelas sobre uso y reutilización, sobre juegos antiguos, debido al relevo generacional ocurrido en las escuelas primarias.</t>
-  </si>
-  <si>
-    <t>el objetivo general del proyecto “la vida no es un juego, pero…” era crear una red de habilidades para actuar con mayor fuerza y ​​eficacia en contextos de penuria social o física como los hospitales. la introducción de la clownterapia y del entretenimiento en el departamento de pediatría y en las urgencias pediátricas de moscati ha servido, ante todo, para que los niños favorezcan el proceso de curación y nos ha permitido establecer y facilitar un entendimiento aún eficaz con el personal médico y de enfermería, también en otros departamentos. el entretenimiento tuvo eco en el departamento de geriatría y el médico jefe involucró a nuestra asociación en actividades de entretenimiento con las personas mayores. a la intervención, inicialmente de volontariato, le siguió, en 017, el proyecto "el hospital de las emociones" - convocatoria de microplanificación social 014-015 csv irpinia solidale de avellino - con intervenciones destinadas a estimular las emociones. nuestras actividades, por tanto, se duplicaron y estuvimos presentes en dos departamentos con un clima más relajado en las relaciones paciente/personal médico y con efectos beneficiosos para la salud.</t>
-  </si>
-  <si>
-    <t>una red regional ampliada y fortalecida, gracias a la expansión de la base social, especialmente en el sur de cerdeña. gracias a la conclusión del proceso de adquisición de habilidades para la elaboración del presupuesto social, nosotros como comité regional de anpas adquirimos una mayor conciencia de nuestro rol que nos ha permitido ser presentes y principales interlocutores en la consulta 118 voluntariado y protección civil. . afirmación de nuestros módulos de formación y acreditación de nuestra escuela de formación.</t>
-  </si>
-  <si>
-    <t>se destaca la participación activa no sólo en las actividades recreativas, sino también en las culturales e intergeneracionales. gracias a la creación del coro, actividad no prevista en el proyecto i lumi della solidarità, fue posible involucrar a algunos niños de los barrios en una iniciativa promovida fuera del barrio, activando así un proceso de emancipación e integración con los niños que viven en otras zonas de la ciudad de petrosino. además, gracias a las fiestas vecinales y actividades lúdicas para niños, también fue posible involucrar a las madres/mujeres que viven allí y que ahora son protagonistas del proceso de cambio en los barrios periféricos. además, durante el proyecto se activaron colaboraciones con algunas entidades locales, no previstas en la fase de planificación y que siguen activas a día de hoy. entre ellos recordamos la colaboración con la cooperativa fo.co y los menores del sprar de petrosino con motivo de los talleres de cocina, en los que ancianos y menores extranjeros prepararon juntos algunas recetas tradicionales sicilianas. oportunidades similares también se han propuesto en otros momentos, contando con la participación activa tanto de las personas mayores como de los invitados del sprar.</t>
-  </si>
-  <si>
-    <t>mayor sensibilización y atención al medio ambiente y al clima por parte del territorio gracias a jornadas de sensibilización ex post del proyecto. efecto multiplicador de las acciones implementadas en otros contextos no previstos en la fase inicial del proyecto que condujo a políticas que adoptaron las herramientas implementadas por el proyecto. nacimiento de asociaciones y comités que prestan atención a los problemas ambientales y la reducción de residuos en la zona.</t>
-  </si>
-  <si>
-    <t>fortalecimiento de las relaciones comunitarias entre la cooperativa y las realidades institucionales y sociales del territorio, habiéndose establecido una continuidad de colaboraciones y sinergias en el ámbito de la prevención y la promoción. el trabajo en red con la lógica de las “relaciones comunitarias” como oportunidad de inclusión y promoción social se ha convertido en el “sistema de vida y trabajo de la cooperativa”. ha crecido la disposición de los actores institucionales a colaborar en la intervención directa para los menores.</t>
-  </si>
-  <si>
-    <t>los cambios positivos observados fueron: - haber contribuido a la creación de un centro de día y residencial local para la atención de personas en riesgo en vico equense (na); - red territorial público-privada consolidada (desde hace unos 4 años) - haber fomentado programáticamente la participación de las familias en la programación continua; - haber promovido vínculos con operadores y gestores del área social del área l.n.38/00; - haber implementado una inclusión gradual de nuevos usuarios en el centro il cielo in una stanza.</t>
-  </si>
-  <si>
-    <t>la instalación de la ecofuente ha constituido desde el principio, y sigue constituyendo, una intervención innovadora para una zona en la que, antes de la implementación de la iniciativa, aún no era posible beneficiarse de un servicio abierto a los ciudadanos, capaz de crear un ventaja económica, dado el bajo coste, así como una ventaja en términos de ahorro de recursos y reducción de la contaminación ambiental. el mismo carácter de innovación y beneficios esperados es aplicable al negocio. cuidémoslo, por lo que, si bien en la actualidad todavía existen algunas cuestiones críticas que impiden su consecución, contiene en sí mismo todos los elementos necesarios para garantizar los resultados necesarios.</t>
-  </si>
-  <si>
-    <t>tras la conclusión de las actividades del proyecto, se encontró lo siguiente: - reducción de los porcentajes de deserción escolar del ics amari roncalli ferrara, del 9,5% al ​​% para la escuela primaria y del 0,3% al 7% para la escuela secundaria inferior, acompañado de la manifestación de un mayor interés por parte de alumnos y familias por la oferta formativa del colegio. - crecimiento del papel del ics amari roncalli ferrara como punto de referencia para el territorio, con la ampliación de la red de socios locales y nacionales, la intensificación de las actividades del proyecto destinadas a enriquecer la oferta formativa, la consolidación de un proyecto para desarrollo territorial en colaboración con diversas asociaciones locales, con la firma del pacto por el territorio estación-magione-kalsa. - mayor conciencia por parte de profesores, agentes escolares y familias sobre los procesos y procedimientos para la realización de un proyecto y sus fases; - fortaleza de la planificación de la red con objetivos a largo plazo: la red continuó invirtiendo en proyectos e iniciativas destinadas a garantizar la continuidad de las actividades realizadas dentro del proyecto. excelente resultado de colaboración entre el mundo sin fines de lucro y las instituciones públicas, ejemplo de convivencia sana y constructiva, generando fuerzas educativas e innovadoras funcionales para combatir la deserción y el abandono escolar; - enriquecimiento de la oferta formativa dirigida a estudiantes/miembros de todos los niveles del ics amari roncalli ferrara a través de proyectos a medio y largo plazo: con la implicación directa de la red de parte de los socios implicados en tlspas, se han activado tres proyectos en continuidad (tu6scuola y stem*lab con con i bambini impresa sociale y decir, hacer, jugar con el miur), se han activado tres proyectos magionewe (mibact), dappertutto con otras asociaciones territoriales muy cercanas a la red. territorios y comunidades para inventar el futuro (empresa social con infancia - convocatoria primera infancia) e immimath (erasmus+). proyectos que tienen como denominador común la introducción de metodologías docentes innovadoras y la consolidación de una comunidad educativa consciente y corresponsable. - comparación continua entre los sujetos de la red para analizar procesos de trabajo compartidos y desarrollar nuevas estrategias educativas.</t>
-  </si>
-  <si>
-    <t>gracias al proyecto, un lugar de adicciones glaming se ha transformado en un bien público accesible a todos, especialmente a los jóvenes que han contribuido activamente a la misma transformación</t>
-  </si>
-  <si>
-    <t>no hay cambios sustanciales en el proyecto "spazioarteteco", salvo una ralentización en el desarrollo de eventos y proyectos, ya que por razones técnicas no hemos podido utilizar la sede operativa de la asociación que ahora está cerrada. actualmente, tras adquirir una habitación nueva y espaciosa, estamos en proceso de reformarla.</t>
-  </si>
-  <si>
-    <t>gracias a la actividad realizada en las escuelas hemos logrado mantener una amplia difusión de la cultura del don y la donación que hoy nos permite penetrar más fácilmente en la agregación y acercamiento de los jóvenes al voluntariado primero y luego a la donación.</t>
-  </si>
-  <si>
-    <t>en algunas zonas de cerdeña fue posible encontrar un enfoque positivo en la gestión de la discapacidad visual vinculado al uso autónomo del patrimonio cultural puesto a disposición.</t>
-  </si>
-  <si>
-    <t>mejor inclusión en el tejido social del territorio y mejoras en el contexto económico individual, además desde la finalización del proyecto cada año se realiza el festival de la inclusión.</t>
-  </si>
-  <si>
-    <t>hay un mayor acceso de los usuarios a las sucursales involucradas en el proyecto con una satisfacción de necesidades mucho más rápida.</t>
-  </si>
-  <si>
-    <t>al finalizar el proyecto, se formaron 6 coordinaciones ciudadanas solidarias y se desarrolló la red forosad en 13 provincias del sur. actualmente existen 8 coordinaciones y la red está presente en las 35 provincias del sur con 74 nuevos miembros. el camino sinérgico entre las asociaciones sad y otras entidades solidarias de la zona se vio reforzado gracias al posterior proyecto financiado por la fundación con il sud que condujo a la creación de la red global forumsad que incluye organizaciones, grupos y personas que de diferentes maneras participan en el desarrollo de los tristes especialmente hacia las personas más vulnerables de los territorios (apoyo cercano). el cambio que se observa ha sido una mayor participación y protagonismo a nivel nacional de asociaciones y comunidades del sur en campañas institucionales y sociales. y eventos. sin embargo, este cambio se sintió menos en calabria debido al menor número de asociaciones involucradas y a la precariedad de sus estructuras organizativas.</t>
-  </si>
-  <si>
-    <t>el contexto de referencia, en un barrio difícil como san cristoforo, ciertamente no pudo cambiar gracias a las intervenciones, aunque positivas, pero que duraron sólo dos años. el impacto a largo plazo de los beneficios producidos por el proyecto, al que se hace referencia en la respuesta anterior, confirma que ha desencadenado caminos virtuosos y cambios en la zona.</t>
-  </si>
-  <si>
-    <t>el proyecto permitió tener un impacto decisivo en el contexto y, en particular, en las instituciones, las escuelas y las familias: gracias al proyecto, y posteriormente a él, se redactó un memorando de entendimiento piedibus aún activo, comenzó una nueva temporada de regeneración la planificación urbana y el cuidado de los bienes comunes aún están en marcha con resultados inesperados (del paso subterráneo para peatones de via acquaviva, remodelado gracias al proyecto, pasamos a regenerar y gestionar de forma compartida muchos jardines municipales que habían estado cerrados y abandonados durante años). ). la administración municipal y las escuelas hoy participan constantemente de las 3 reuniones anuales de discusión, evaluación y planificación de intervenciones de educación ambiental. estas instituciones han elevado su nivel de participación y trabajo en red con el territorio, aunque esto no necesariamente corresponde a una línea operativa de intervención en los temas ambientales más importantes.</t>
-  </si>
-  <si>
-    <t>en general, el cambio se puede encontrar en una mayor propensión de los ciudadanos, especialmente los desfavorecidos, a disfrutar de los contenidos culturales ofrecidos dentro de la propiedad.</t>
-  </si>
-  <si>
-    <t>los cambios no se pueden encontrar debido a la falta de sostenibilidad del proyecto.</t>
-  </si>
-  <si>
-    <t>el proyecto ha revelado una mayor conciencia por parte del sector privado y de las instituciones sobre la importancia del trabajo en red. la visión de finis terrae de activar caminos compartidos sigue viva en muchos proyectos que tanto organizaciones sociales privadas como instituciones impulsan en la zona. esto nos ha permitido optimizar los servicios a los usuarios y fortalecer su efectividad.</t>
-  </si>
-  <si>
     <t>el líder trabaja diariamente con las demás organizaciones de la red tanto por la continuidad geográfica como por la pertenencia a la red de asistencia pública que permite un intercambio continuo. el programa sin duda también ha fortalecido los vínculos sociales entre los voluntarios y por lo tanto ha aumentado la interacción y el intercambio de bienes. practicas</t>
   </si>
   <si>
@@ -3631,63 +3250,6 @@
     <t>se firmó un memorando de entendimiento para unirse al proyecto del festival il jester. actualmente continúan las colaboraciones en asociación y en línea en varios proyectos según la situación.</t>
   </si>
   <si>
-    <t>durante el año se planifican actividades que se realizarán online con reuniones periódicas y en las actividades participan voluntarios de las distintas asociaciones</t>
-  </si>
-  <si>
-    <t>actualmente se llevan a cabo conjuntamente proyectos de función pública nacional en materia educativa y también se ha ampliado la red de gestores de monumentos incluidos en el circuito del producto sagrado de la animación sociocultural del genio de palermo.</t>
-  </si>
-  <si>
-    <t>la red de socios continúa la colaboración a través de la participación en las mesas de voluntariado de la provincia de cosenza y el intercambio de la junta directiva del csv prov cosenza</t>
-  </si>
-  <si>
-    <t>al final del proyecto, las estaciones instaladas en las distintas oficinas de otras asociaciones de cerdeña se encontraron con algunas dificultades en la gestión centralizada y en la falta de recursos humanos para gestionar el servicio de préstamo y formación para los usuarios especiales. los destinatarios finales, aunque gestionados principalmente desde la sede, siguen beneficiándose de los servicios prestados.</t>
-  </si>
-  <si>
-    <t>desde su constitución, csi ha tenido una relación de asesoría fiscal, contable y de planificación del trabajo con los municipios y la cooperativa novaterra. existe una excelente relación de colaboración que actualmente no está formalizada.</t>
-  </si>
-  <si>
-    <t>hasta la fecha el responsable colabora activamente con todos los demás socios de la red tanto porque comparte la misión asociativa al ser ellos mismos clubes legambiente como porque con el tiempo ha activado otras vías de proyecto que los involucran en una serie de actividades de educación ambiental de sensibilización e información dirigida a instituciones, colegios, asociaciones y ciudadanía con el fin de estimular cada vez más el cuidado y respeto por el medio ambiente, en concreto, se está creando cursos de educación ambiental en los colegios, rutas de senderismo, campañas de sensibilización como la fiesta del árbol, limpiemos el mundo. , playas y fondos marinos limpios, etc.</t>
-  </si>
-  <si>
-    <t>todas las organizaciones excepto arciragzzi de la asociación forman parte del comité don peppe diana y por lo tanto comparten los mismos objetivos y programas</t>
-  </si>
-  <si>
-    <t>el consorcio abajo firmante andalas de amistade sigue colaborando con las organizaciones socias del proyecto, proponiendo, desarrollando y gestionando proyectos siempre orientados a la protección del medio ambiente y la inserción laboral, colaborando constantemente con el municipio de sorso, la oficina de medio ambiente y servicios sociales, wwf lipu forestas coldiretti, universidad, escuelas de distintos niveles, actualmente tiene en marcha dos proyectos de efecto mariposa</t>
-  </si>
-  <si>
-    <t>todos los socios del proyecto cus continúan realizando las actividades previstas por el proyecto dentro del pabellón del antiguo hospital psiquiátrico de palermo sede del proyecto la cooperativa solidaria involucra a usuarios italianos e inmigrantes en el campo de la salud mental culo teatro patafisico se ocupa de la dirección del espacio teatral y la organización de un calendario anual de eventos ass teatro atlante organiza periódicamente espectáculos y eventos con niños y jóvenes en los espacios del cus la asociación de diseño gitano continúa el mapeo de saberes de los migrantes y organiza talleres de artesanía con usuarios refugiados alojados en la recepción del cus instalación gestionada por cresm que se encarga de coordinar la recaudación de fondos y la promoción de actividades con las comunidades de inmigrantes y la ciudad. ass mediterraneo di pace gestiona la biblioteca. la única asociación que ya no participa es ass arca, ya que se ha disuelto.</t>
-  </si>
-  <si>
-    <t>la colaboración se refiere tanto a intervenciones educativas como de promoción social dirigidas a menores, adolescentes y personas mayores la colaboración se realiza a través de memorandos de entendimiento y acuerdos de colaboración he aquí algunos ejemplos el proyecto pangea reurbanización de la plaza larga batalla con el cuidado de los parterres dedicados a la continentes y los murales sobre los personajes de la no violencia en esta red hay entidades presentes en la colaboración del proyecto como lega ambiente la gru arci scampia ass puertas invisibles ass dafne ass dream team social coop elle bi proyecto escolar comunitario financiado por la región de campania con fondos de la ats que implementa el proyecto, la asociación porte invisible es socia del proyecto agencia de ciudadanía financiado por la región de campania. la gru está presente en la asociación.</t>
-  </si>
-  <si>
-    <t>alianzas en proyectos similares y actividades de networking en colaboración con csv salento</t>
-  </si>
-  <si>
-    <t>ssf sigue colaborando con los siguientes socios del proyecto centro ester nippon club la mangrovia los niños de la asociación familiar sin ánimo de lucro y la comunidad de sant egidio los menores beneficiarios practican deporte en el polideportivo centro ester del distrito de barra y en la escuela de judo nippon club ambos socios titulados del proyecto los menores realizan las siguientes actividades deportivas fútbol voleibol baloncesto y taekwondo con el ester center y judo con el nippon club en virtud del número de menores alojados en dichos centros deportivos la ssf reconoce una contribución normalmente definida al inicio de durante el año se trata de asociaciones deportivas con las que se ha logrado una colaboración fructífera a lo largo del tiempo en beneficio de los menores beneficiarios. semanalmente se producen contactos entre los tutores de la ssf y los entrenadores con el fin de conocer y seguir la evolución de la actividad deportiva y sus eventuales avances. y asistencia de los menores juntos a las sesiones de asesoramiento que la psicóloga de la ssf brinda a las familias al respecto, este año las familias han firmado un pacto educativo con la ssf con el fin de adquirir responsabilidad formal en cuanto a la asistencia a las sesiones de formación y la comunicación de cualquier impedimentos o dificultades que puedan surgir cuando sea posible contribuyen económicamente a la compra del kit deportivo en algunos casos los padres acompañan personalmente a sus hijos al deporte cuando sea posible durante los tiempos y distancias y se quedan para ayudar en el entrenamiento en concierto con el entrenador en situaciones específicas por ejemplo, los menores que asisten al club nipón fieles al curso e insertados desde hace más de dos años, se evalúan las posibilidades adicionales de participación en competiciones y torneos, incluidos los partidos fuera de casa, en vista del crecimiento de los deportistas beneficiarios que se convierten en los propios entrenadores. promotores de otras iniciativas, como por ejemplo el entrenador nipón de judo los días que no hay el curso involucra a todos los judokas para seguir entrenando en carrera lo que les estimula y motiva aún más para conseguir nuevos resultados los niños de la familia onlus y la comunidad de sant egidio colaboran. como órganos informantes, es decir, indicando menores en situaciones difíciles que posiblemente puedan ser dirigidos al deporte a estos clubes deportivos se han agregado otros con el tiempo annapoli bádminton en un gimnasio en volla na la mep en ponticelli fútbol la flat srl voleibol kárate y taekwondo en san giorgio a cremano na la canottieri en ponticelli triatlón star judo club judo en los suburbios de scpia al norte de la ciudad club deportivo en pórtico voleibol y el club de voleibol pórtico</t>
-  </si>
-  <si>
-    <t>la persona responsable todavía colabora con las asociaciones de voluntariado involucradas, en particular una asociación leaquile deletna continúa manteniendo la gestión funcional de la caravana con las otras asociaciones que hemos intentado planificar y colaborar en la búsqueda de fondos y voluntarios para la continuación del servicio. se han encontrado problemas con el consorcio de profesionales de la sonrisa porque era difícil compartir plenamente la visión de los objetivos a alcanzar.</t>
-  </si>
-  <si>
-    <t>lunes de bari continúa su colaboración con la sección territorial de barletta y bari con la asociación de deportes amateurs para discapacitados de bari, mientras que la colaboración con la asociación prato fiorito y ali verde se ha interrumpido ya que estas asociaciones se ocupan de problemas diferentes.</t>
-  </si>
-  <si>
-    <t>todas las actividades deportivas están activas dentro de los ipm involucrados en el proyecto. además, el protocolo con el ministerio de justicia juvenil se renovará a finales de julio.</t>
-  </si>
-  <si>
-    <t>actualmente, las colaboraciones con todos los socios implicados continúan y mantienen una productividad excelente, en particular con la universidad de edimburgo, con la que se ha colaborado periódicamente en el estudio de las variables genéticas implicadas en la estadificación de la esquizofrenia, el lieber institute for brain development de baltimore. con el que se han iniciado nuevas colaboraciones de probablemente largo y muy largo alcance científico, especialmente en el campo de las metodologías para el cálculo de las puntuaciones de coexpresión genética y del riesgo poligénico de la esquizofrenia, csm de brindisi con el que hemos emprendido una nueva e importante colaboración en el ámbito regional proyecto de identificación precoz de pacientes con psicosis empresa social auxilium y cooperativa social città solidale con la que colaboramos continuamente en cursos de formación relacionados con el uso de herramientas para la rehabilitación cognitiva y el reclutamiento de nuevos casos de interés dentro de nuestros protocolos de estudio</t>
-  </si>
-  <si>
-    <t>la colaboración científica con otros organismos de investigación continúa, ya que sigue habiendo un interés común en desarrollar las actividades del proyecto, sin embargo, existen dificultades debido a la falta de financiación específica. también continúan los contactos con la cooperativa de socios del tercer sector en busca de posibles proyectos conjuntos con el objetivo de superarlos. los obstáculos que limitan la introducción de nuevos edulcorantes proteicos en el mercado alimentario.</t>
-  </si>
-  <si>
-    <t>colaboración científica con algunos de los socios de investigación y colaboración basada en la transferencia de tecnología con algunos de los socios corporativos.</t>
-  </si>
-  <si>
-    <t>algunos socios de la red creada para parkambiente colaboran actualmente con los voluntarios de sannio en la gestión de las actividades del parque. la asociación buon sanità destaca por su apoyo a las personas con discapacidad, mientras que la asociación gicara colabora activamente en iniciativas culinarias. entendiendo que hay escuelas de todos los niveles y niveles que periódicamente organizan visitas al parque con las clases, organizamos con ellos competiciones de orientación y actividades recreativas, varias asociaciones se han retirado tan pronto como se han agotado los recursos económicos para la construcción del parque, las razones dadas por algunas asociaciones se refieren a las dificultades económicas y, a distancia, del parque lunione ciechi de benevento, el cesvob de benevento y el centro socioeducativo tirino de airola y las escuelas de la zona son los principales visitantes. que desde hace unos meses y presumiblemente hasta septiembre se está instalando el parque en la localidad de bucciano</t>
-  </si>
-  <si>
     <t>con parte del proyecto se creó una miniatura a escala táctil de la basílica del s. sebastiano en acireale; miniatura que permite a los visitantes ciegos poder, a través del tacto, comprender cómo es exteriormente la basílica (fachada y fondo).</t>
   </si>
   <si>
@@ -4139,72 +3701,6 @@
   </si>
   <si>
     <t>los destinatarios directos de nuestro proyecto fueron diferentes: las asociaciones locales, con las que seguimos tejiendo redes en diversos proyectos hasta la ratificación de un memorando de entendimiento sobre la propia fiesta del bufón, las personas con discapacidad que vieron aumentar la oferta de algunas actividades. (por ejemplo, también gracias al proyecto, otra organización inició actividades deportivas para personas con discapacidad), los niños y las escuelas con quienes continuamos trabajando en los temas de inclusión e integración hasta la creación de dos días en el cine impero en trani en 2018, etc. creemos que este proyecto fue un generador de cambio y lo sigue siendo dado que aún continúa con muchas dificultades.</t>
-  </si>
-  <si>
-    <t>los presos extranjeros a los que se dirige el proyecto recibieron ayuda para solicitar protección internacional, permisos de residencia y otros documentos personales y, a través de pasantías, en la colocación laboral. los datos y los problemas encontrados se describieron en el informe final. debido a la expiración de sus penas de prisión o su traslado a otros países, muchos de ellos ya no son fácilmente rastreables. además de la conciencia adquirida sobre las protecciones previstas por la ley italiana, se mantiene, sobre todo, el método de trabajo introducido "más allá de las fronteras" en la práctica administrativa y educativa de las cárceles, para abordar las necesidades de los ciudadanos extranjeros desfavorecidos. de libertad.</t>
-  </si>
-  <si>
-    <t>en el pasado, al no contar con un gran número de voluntarios capacitados, teníamos dificultades para poder realizar reuniones en las escuelas. después de haber formado a nuestros voluntarios y a los de las asociaciones online participantes en el proyecto, años después seguimos realizando encuentros en los colegios y de forma más incisiva, en particular, en los meses de marzo, abril y diciembre, cada año, son dedicado a la educación de los estudiantes. los temas versan sobre: ​​el sistema nacional de protección civil, la difusión de la cultura de la protección civil y la autoprotección a través de la prevención, maniobras de seguridad ante catástrofes, prevención de accidentes domésticos y pirotécnicos. en julio se realizan campamentos escolares para niños de 11 a 16 años. durante el año se realizan campañas de información a los ciudadanos sobre el blsd, terremotos, tsunamis e inundaciones.</t>
-  </si>
-  <si>
-    <t>en general el proyecto produjo un mayor sentimiento de pertenencia a la vida de la organización que se puede destacar por el grado de participación, que también se deduce de la voluntad de realizar actividades especializadas de rescate. los voluntarios implicados en el proyecto también recibieron beneficios directos tanto dentro de la asociación como en términos de consecuencias laborales como beneficiarios de cualificaciones aprovechables y útiles a nivel curricular.</t>
-  </si>
-  <si>
-    <t>en algunas acciones los destinatarios son familias y menores, incluso de diferentes comunidades étnicas. hasta la fecha, las familias contactadas son más de 200 (lamentablemente no disponemos de un diario de actividades) con 268 menores involucrados en las actividades del coro y la orquesta infantil y "quattrocanti", que es el producto más continuo del proyecto genio de palermo. . la belleza salvará al mundo. con el tiempo los menores seguidos han logrado mayor y constante éxito académico, los padres colaboran, en proporción a su compromiso laboral, en las actividades de laboratorio de los menores. hemos registrado el fenómeno de la segunda migración a los países del norte de europa en 5 grupos de familias no italianas. sin embargo, el principio de cohesión e inclusión en la comunidad orquestal se percibe e implementa en la vida cotidiana de los menores y jóvenes involucrados, en parte en sus respectivas familias.</t>
-  </si>
-  <si>
-    <t>el cambio positivo se observa a través del uso constante de la radio social, no sólo por parte de las asociaciones sino también de los sujetos individuales, portadores de la "demanda social" y promotores de movimientos de opinión, que empiezan desde abajo para involucrar a los actores locales.</t>
-  </si>
-  <si>
-    <t>las actividades del proyecto "il pentalibro" todavía hoy son fácilmente identificables en los préstamos de material documental que se realizan a usuarios invidentes en cerdeña. la difusión de una cultura accesible y el uso del patrimonio cultural por parte de categorías desfavorecidas están arraigados en el tejido social.</t>
-  </si>
-  <si>
-    <t>en nuestra opinión, todas las actividades implementadas han logrado el objetivo perseguido. desde el final del proyecto hemos constatado un cambio de actitud entre los ciudadanos y todos los beneficiarios del proyecto hacia las cuestiones medioambientales, el bien común, la valorización del territorio y, en particular, la pérdida de biodiversidad. los ciudadanos ya no se muestran pasivos y desinteresados, sino cada vez más deseosos de profundizar sus conocimientos y experimentar el territorio con una conciencia medioambiental basada en el respeto y la valorización de los lugares. “los voluntarios naturalmente en la red 2” contribuyeron, con acciones de sensibilización, a generar un impacto positivo en las comunidades. además, a través del seguimiento ambiental participativo por parte de la ciudadanía, se ha creado un método de investigación cooperativa dedicado a la protección del hábitat y la valorización de las peculiaridades y el potencial naturalista del territorio.</t>
-  </si>
-  <si>
-    <t>el proyecto carta 32 ha creado excelentes sinergias con las asociaciones socias. organización de momentos de discusión y coordinación con la red territorial. • contribuir a la identificación de las asociaciones del sector social presentes en la zona y fomentar los contactos con ellas. • coparticipar en los contactos con las asociaciones. instituciones y la sistematización de la información recolectada • apoyar la comunicación entre las instituciones y otras mesas. el objetivo general era fomentar un aumento de las oportunidades de agregación y socialización, particularmente para las personas en riesgo de marginación social. una actividad central sobre los migrantes para ayudarles a ofrecer espacios en los que las personas puedan sentirse bien, junto con los demás, en los que quienes puedan sentirse excluidos encuentren espacios de expresión y encuentro con los demás. encontrar viviendas o centros de primera acogida. la implementación de una serie de acciones de co-marketing - talleres de capacitación - mesa de escucha.</t>
-  </si>
-  <si>
-    <t>la intervención del programa de identidad en red fue y es parte de un camino mucho más amplio que varias organizaciones del tercer sector de la zona trazaron hace muchos años: la posibilidad de que las comunidades locales se identifiquen con ejemplos positivos de ciudadanía y compromiso cívico que han actuado o que actúan diariamente en el contexto de referencia. el programa de identidad de la red contribuyó a lograr este objetivo. aún hoy es posible admirar la exposición ioresisto en la propiedad confiscada de casa don diana con los rostros de las personas que en su vida diaria mejoran el contexto local. la exposición es vista sobre todo por grupos escolares y por lo tanto el mensaje aún se transmite. a numerosos jóvenes de hoy.</t>
-  </si>
-  <si>
-    <t>el proyecto contribuyó significativamente a: 1. proporcionar herramientas de trabajo y operativas a las personas empleadas en la actividad; 2. promover una cultura de acogida siguiendo el ejemplo del empleo de personas sometidas a castigos. además este modelo se ha replicado, en forma más pequeña, en otros municipios. 3. desarrollar y promover la cultura y la conciencia de protección y protección del medio ambiente.</t>
-  </si>
-  <si>
-    <t>el proyecto comunidades urbanas solidarias (cus) implicó la activación de espacios y servicios específicos para las comunidades de inmigrantes de palermo y para categorías particularmente frágiles como los solicitantes de asilo/refugiados con problemas de salud mental. el proyecto cus comenzó y continúa: - espacio de acogida con 8 camas para solicitantes de asilo/refugiados - espacio de teatro para usuarios con problemas de salud mental y espacio de debate sociocultural con y entre las comunidades de inmigrantes de palermo - colaboración con la consulta culturas de palermo que el proyecto. cus contribuyó al nacimiento y cuyos dos últimos presidentes son mediadores culturales provenientes del prog. cus - mapeo de las competencias profesionales de los inmigrantes residentes en palermo en el ámbito de la edificación y la arquitectura ecológicas (esta última actividad en particular condujo a la creación del nuevo proyecto officine alla zisa, financiado por la fundación con il sud).</t>
-  </si>
-  <si>
-    <t>el cambio positivo que perseguía el proyecto consistió principalmente en los siguientes dos elementos: 1) aumentar la usabilidad de los lugares, la habitabilidad del barrio, iniciando procesos que permitan a las personas vivir en espacios bellos y agradables. 2) incrementar el nivel de pertenencia y participación en la vida político-cultural de la ciudad. ambos fueron perseguidos con una lógica de participación activa que promovió en los destinatarios tanto la adquisición de métodos de acción como la sensibilidad sobre las cuestiones de mejora de la usabilidad del contexto territorial al que pertenecen. de hecho, la experiencia de colaboración entre las organizaciones colaboradoras y los ciudadanos continúa en diferentes formas y dimensiones, sobre todo porque el principal lugar de implementación del proyecto, una zona del parque público de scampia, ha vuelto a estar a disposición de la administración municipal. de nápoles y efectivamente ya no está disponible. es decir, las organizaciones y los ciudadanos de scampia, que han estrechado lazos entre ellos durante la realización del proyecto, continúan su colaboración en la realización de iniciativas nacidas gracias al proyecto. que van desde talleres en colegios hasta la celebración de una nueva edición del "music fest"</t>
-  </si>
-  <si>
-    <t>los sujetos inmigrantes implicados en el proyecto formativo siguen presentes en las actividades de la asociación y sus socios, continúa la sección de información dedicada a las necesidades de salud de las mujeres y menores inmigrantes. se presenta un proyecto financiado con fondos autonómicos para continuar el camino iniciado en los últimos años</t>
-  </si>
-  <si>
-    <t>el cambio positivo generado por el proyecto es detectable en los beneficiarios directos a través de la observación de los siguientes factores: a) los padres, involucrados en el proyecto, ahora consideran el deporte como un aspecto importante para el bienestar psicofísico de sus hijos, lo que no debe renunciarse (algunos de los beneficiarios directos, iniciados en el deporte gracias al proyecto, ahora son económicamente independientes porque el coste de la actividad deportiva corre a cargo de la familia, a pesar de estar controlados por el personal de deportes sin fronteras). cabe señalar que la mayoría de los niños que practican deporte nunca antes habían realizado actividad deportiva, excepto en horario escolar (ed. física); este dato puede cuantificarse como un porcentaje que, aproximado por defecto, supera el 50%; b) los beneficiarios que han emprendido un recorrido deportivo a través de la ssf han demostrado con el tiempo, por un lado, tener más confianza en sus capacidades (uno de los menores en cuestión se convirtió en campeón regional en su disciplina, el triatlón), y, por otro, ser más capaces de relación con el grupo con el que practica deporte y con sus compañeros en general. estos datos surgieron de conversaciones periódicas con el entrenador. c) los beneficiarios también obtuvieron buenos resultados a nivel escolar, gestionando con éxito el tiempo de que disponían (estudio, deporte, tiempo libre). dicho progreso se notaba a través de reuniones programadas con las familias y, en ocasiones, a través de la verificación de evaluaciones escolares periódicas (por ejemplo, boletas de calificaciones). en algunos casos, particularmente cuando la asistencia tiene un alto porcentaje, la práctica deportiva es utilizada por los padres como un factor de recompensa para poder obtener mayores logros de sus hijos en la escuela o mayor disciplina; d) la práctica deportiva también ha supuesto para los beneficiarios una mayor atención a los estilos de vida y a los hábitos alimentarios, a menudo favorecidos por el papel no secundario del entrenador. la inclusión en el deporte es una oportunidad preciosa para que las familias presten la debida atención a la salud de sus hijos: esta mayor atención se refiere al bienestar psicofísico del menor en su conjunto. la práctica del deporte es un momento rentable y eficaz para incentivar a los menores y a las familias beneficiarias a mantener un estilo de vida saludable y correcto, incluso en los pocos casos que no se traduzcan en su inclusión en la práctica deportiva. la práctica deportiva es, de hecho, una oportunidad para el seguimiento de la salud: esto ha fomentado el acceso al sistema de salud de las familias beneficiarias. en particular, el acceso a programas de salud en centros especializados, como la unidad operativa del hospital pediátrico santobono de nápoles, en el hospital annunziata, para la obesidad infantil (actualmente este centro trata a uno de nuestros beneficiarios, al que se ha dirigido allí). e) el apoyo a las familias en diversos casos tiene impacto ya que se han incluido 2 hermanos de una misma familia, con mayor posibilidad de responsabilización y orientación. a menudo, la inclusión en la actividad deportiva ha proporcionado a los beneficiarios una vida adaptada a los niños, con los espacios necesarios para el ocio, el entretenimiento y la socialización. el proyecto, en una zona de referencia (nápoles - campania) con conocidos problemas estructurales de obra, es una oportunidad para un trabajo bello y constructivo para los operadores involucrados.</t>
-  </si>
-  <si>
-    <t>nuestro proyecto incluía tres acciones distintas: música, teatro y deporte, dirigidas a personas ciegas, personas ciegas con múltiples discapacidades y personas con diferentes discapacidades (ver colaboración con la asociación "il prato fiorito" de rutigliano). todas las disciplinas han llevado a la consecución de objetivos que, aunque previstos y esperados en el propio proyecto, no siempre son fáciles de alcanzar: autoestima, inclusión social, desarrollo y mejora de las capacidades personales, apoyo al trabajo en equipo, cohesión e integración. . en los participantes - y en particular en algunos sujetos particularmente cerrados o reprimidos - fue posible observar el cambio objetivo en su carácter y/o en su acercamiento a los demás obtenido con la práctica de las tres acciones. aquellos que aún hoy continúan con sus actividades han logrado estos objetivos.</t>
-  </si>
-  <si>
-    <t>los niños y niñas detenidos en los ipm remodelados pueden beneficiarse de los espacios remodelados y de las actividades deportivas realizadas por los operadores de la uisp. el único ipm que no continúa su actividad es el de pontremoli por estar cerrado.</t>
-  </si>
-  <si>
-    <t>el proyecto permitió crear una red entre asociaciones: no sólo las 5 que inicialmente se sumaron al proyecto, sino muchas más. hoy hay alrededor de 12/15 asociaciones que trabajan en línea para el territorio</t>
-  </si>
-  <si>
-    <t>el objetivo principal de nuestro proyecto fue desarrollar uno o más algoritmos para la estadificación de la esquizofrenia sobre la base de variables biológicas y ambientales específicas de cada individuo. en este sentido el trabajo realizado hasta ahora ha producido una serie de resultados importantes y observables también en términos de publicaciones científicas en revistas de importancia internacional, en particular: 1) se ha procedido al desarrollo de puntuaciones de riesgo genético para la esquizofrenia determinadas en función de la nos basamos en estudios de asociación de todo el genoma (gwas) y estudiamos el impacto de estas puntuaciones en las variables clínicas y el funcionamiento cerebral evaluados con imágenes de resonancia magnética funcional (fmri); 2) procedimos a calcular puntuaciones que indexan la coexpresión de genes implicados en el riesgo de esquizofrenia y estudiamos el impacto de estas puntuaciones en los fenotipos clínicos y de neuroimagen de la esquizofrenia, así como la respuesta a los tratamientos psicofarmacológicos de la enfermedad.</t>
-  </si>
-  <si>
-    <t>tras la conclusión del proyecto, siguen colaboraciones con investigadores implicados en el proyecto en sí, que se refieren a las caracterizaciones estructurales y funcionales de las proteínas dulces. utilizando los datos recopilados durante el proyecto, se han publicado 4 nuevos trabajos científicos en revistas internacionales y se han presentado dos. además, gracias a los resultados obtenidos se solicitó una beca de doctorado financiada con fondos del pon, que permite continuar con la actividad investigadora. finalmente, continúa la actividad de la spin-off creada dentro del proyecto.</t>
-  </si>
-  <si>
-    <t>el parque de salud es un proyecto de utilidad social que logra el objetivo general de brindar servicios sociales y sanitarios inclusivos, fomentando un camino virtuoso de adopción por parte de los ciudadanos de un bien común reconstruido gracias a un proyecto comunitario, compartido desde abajo, que lo hizo. posible reurbanizar una zona en estado de total abandono, fomentando así la reapropiación y el cuidado de un espacio inclusivo por parte de la ciudadanía a través de la puesta en común de actividades por parte de una red formada por más de sesenta entidades de diferente naturaleza. actualmente el parque está abierto los 365 días del año y por lo tanto es sostenible.</t>
-  </si>
-  <si>
-    <t>parkambiente se ha propuesto como el único punto de referencia para las personas con discapacidad en toda la provincia y fuera de ella, capaz de ofrecer a los usuarios espacios adaptados a sus necesidades. entre las ofertas de inclusión en la vida social, también con el apoyo de numerosos voluntarios y miembros de la asociación, destaca por su demanda el sendero sensorial aromático para ciegos, capaz de atraer usuarios incluso de la ciudad de benevento. parkambiente, tras una fase inicial en la que participaron alumnos de quinto grado de valle caudina, alrededor de 250 alumnos, pudo interactuar con el mundo escolar con diversos tipos de iniciativas encaminadas a la integración de niños que se sentían marginados dentro de las clases. los usuarios del parque medioambiental han superado con creces nuestras expectativas, son cada vez más frecuentes las visitas de grupos de extranjeros alojados en nuestros países por motivos laborales (cuidadores de familias) que organizan picnics.</t>
-  </si>
-  <si>
-    <t>en 2015, axa completó el servicio de higiene ambiental del municipio de lecce con la adquisición de la empresa monteco. a raíz de la gestión del servicio de recogida selectiva de residuos, mediante campanas, por parte de axa que documentó un aumento de la recogida de rsu, la nueva empresa monteco, también en relación con la legislación vigente y las cláusulas contenidas en el contrato con el municipio de lecce, el compromiso continuó en la dirección trazada por el proyecto. se puede afirmar en general que los resultados positivos alcanzados con el proyecto rallan han influido en cierta medida en el nuevo servicio de recogida (desde timbres hasta "puerta a puerta") en el marco de las distintas acciones implementadas por los socios que implementaron el proyecto. .</t>
   </si>
   <si>
     <t>¿Cuáles han sido, si los hay, los cambios significativos</t>
@@ -4226,6 +3722,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -4588,69 +4085,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4925D8-7525-4E9B-9A91-FD0496E9B3D9}">
-  <dimension ref="A1:L206"/>
+  <dimension ref="A1:L180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181:S206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" customWidth="1"/>
     <col min="10" max="13" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>803</v>
+        <v>708</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>804</v>
+        <v>709</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>809</v>
+        <v>714</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>808</v>
+        <v>713</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>805</v>
+        <v>710</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>806</v>
+        <v>711</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>810</v>
+        <v>715</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>807</v>
+        <v>712</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>873</v>
+        <v>771</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>874</v>
+        <v>772</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>876</v>
+        <v>774</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>702</v>
+        <v>623</v>
       </c>
       <c r="B2" t="s">
-        <v>703</v>
+        <v>624</v>
       </c>
       <c r="C2" t="s">
         <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>704</v>
+        <v>625</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -4665,33 +4162,33 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>1216</v>
+        <v>1070</v>
       </c>
       <c r="J2" t="s">
-        <v>861</v>
+        <v>761</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>436</v>
       </c>
       <c r="B3" t="s">
-        <v>494</v>
+        <v>437</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>438</v>
       </c>
       <c r="D3" t="s">
-        <v>496</v>
+        <v>439</v>
       </c>
       <c r="E3" t="s">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -4703,33 +4200,33 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="J3" t="s">
-        <v>843</v>
+        <v>744</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s">
-        <v>565</v>
+        <v>495</v>
       </c>
       <c r="C4" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="D4" t="s">
-        <v>566</v>
+        <v>496</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -4741,33 +4238,33 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>1217</v>
+        <v>1071</v>
       </c>
       <c r="J4" t="s">
-        <v>1076</v>
+        <v>949</v>
       </c>
       <c r="K4" t="s">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>560</v>
+        <v>490</v>
       </c>
       <c r="B5" t="s">
-        <v>561</v>
+        <v>491</v>
       </c>
       <c r="C5" t="s">
-        <v>562</v>
+        <v>492</v>
       </c>
       <c r="D5" t="s">
-        <v>563</v>
+        <v>493</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -4779,19 +4276,19 @@
         <v>7</v>
       </c>
       <c r="I5" t="s">
-        <v>1218</v>
+        <v>1072</v>
       </c>
       <c r="J5" t="s">
-        <v>1077</v>
+        <v>950</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4817,30 +4314,30 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>1219</v>
+        <v>1073</v>
       </c>
       <c r="J6" t="s">
-        <v>1078</v>
+        <v>951</v>
       </c>
       <c r="K6" t="s">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>620</v>
+        <v>545</v>
       </c>
       <c r="B7" t="s">
-        <v>621</v>
+        <v>546</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>622</v>
+        <v>547</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -4855,30 +4352,30 @@
         <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>623</v>
+        <v>548</v>
       </c>
       <c r="J7" t="s">
-        <v>1079</v>
+        <v>952</v>
       </c>
       <c r="K7" t="s">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -4893,30 +4390,30 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>1220</v>
+        <v>1074</v>
       </c>
       <c r="J8" t="s">
-        <v>1080</v>
+        <v>953</v>
       </c>
       <c r="K8" t="s">
         <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
@@ -4931,30 +4428,30 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="J9" t="s">
-        <v>1081</v>
+        <v>954</v>
       </c>
       <c r="K9" t="s">
         <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>797</v>
+        <v>702</v>
       </c>
       <c r="B10" t="s">
-        <v>798</v>
+        <v>703</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>799</v>
+        <v>704</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -4969,30 +4466,30 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>1221</v>
+        <v>1075</v>
       </c>
       <c r="J10" t="s">
-        <v>820</v>
+        <v>724</v>
       </c>
       <c r="K10" t="s">
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="E11" t="s">
         <v>71</v>
@@ -5007,30 +4504,30 @@
         <v>5</v>
       </c>
       <c r="I11" t="s">
-        <v>1222</v>
+        <v>1076</v>
       </c>
       <c r="J11" t="s">
-        <v>1082</v>
+        <v>955</v>
       </c>
       <c r="K11" t="s">
         <v>46</v>
       </c>
       <c r="L11" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>740</v>
+        <v>657</v>
       </c>
       <c r="B12" t="s">
-        <v>741</v>
+        <v>658</v>
       </c>
       <c r="C12" t="s">
-        <v>742</v>
+        <v>659</v>
       </c>
       <c r="D12" t="s">
-        <v>743</v>
+        <v>660</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -5045,33 +4542,33 @@
         <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>1223</v>
+        <v>1077</v>
       </c>
       <c r="J12" t="s">
-        <v>868</v>
+        <v>768</v>
       </c>
       <c r="K12" t="s">
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
-        <v>461</v>
+        <v>411</v>
       </c>
       <c r="C13" t="s">
-        <v>462</v>
+        <v>412</v>
       </c>
       <c r="D13" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -5083,30 +4580,30 @@
         <v>7</v>
       </c>
       <c r="I13" t="s">
-        <v>1224</v>
+        <v>1078</v>
       </c>
       <c r="J13" t="s">
-        <v>1083</v>
+        <v>956</v>
       </c>
       <c r="K13" t="s">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>709</v>
+        <v>630</v>
       </c>
       <c r="B14" t="s">
-        <v>710</v>
+        <v>631</v>
       </c>
       <c r="C14" t="s">
         <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>711</v>
+        <v>632</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -5121,30 +4618,30 @@
         <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>1225</v>
+        <v>1079</v>
       </c>
       <c r="J14" t="s">
-        <v>1084</v>
+        <v>957</v>
       </c>
       <c r="K14" t="s">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>613</v>
+        <v>538</v>
       </c>
       <c r="B15" t="s">
-        <v>614</v>
+        <v>539</v>
       </c>
       <c r="C15" t="s">
-        <v>615</v>
+        <v>540</v>
       </c>
       <c r="D15" t="s">
-        <v>616</v>
+        <v>541</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -5159,30 +4656,30 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>1226</v>
+        <v>1080</v>
       </c>
       <c r="J15" t="s">
-        <v>1085</v>
+        <v>958</v>
       </c>
       <c r="K15" t="s">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>755</v>
+        <v>672</v>
       </c>
       <c r="B16" t="s">
-        <v>756</v>
+        <v>673</v>
       </c>
       <c r="C16" t="s">
-        <v>757</v>
+        <v>674</v>
       </c>
       <c r="D16" t="s">
-        <v>758</v>
+        <v>675</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
@@ -5197,33 +4694,33 @@
         <v>8</v>
       </c>
       <c r="I16" t="s">
-        <v>1227</v>
+        <v>1081</v>
       </c>
       <c r="J16" t="s">
-        <v>1086</v>
+        <v>959</v>
       </c>
       <c r="K16" t="s">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>637</v>
+        <v>562</v>
       </c>
       <c r="B17" t="s">
-        <v>638</v>
+        <v>563</v>
       </c>
       <c r="C17" t="s">
-        <v>639</v>
+        <v>564</v>
       </c>
       <c r="D17" t="s">
-        <v>640</v>
+        <v>565</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
         <v>28</v>
@@ -5235,30 +4732,30 @@
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>1228</v>
+        <v>1082</v>
       </c>
       <c r="J17" t="s">
-        <v>1087</v>
+        <v>960</v>
       </c>
       <c r="K17" t="s">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>748</v>
+        <v>665</v>
       </c>
       <c r="B18" t="s">
-        <v>749</v>
+        <v>666</v>
       </c>
       <c r="C18" t="s">
-        <v>750</v>
+        <v>667</v>
       </c>
       <c r="D18" t="s">
-        <v>751</v>
+        <v>668</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>
@@ -5273,33 +4770,33 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>1229</v>
+        <v>1083</v>
       </c>
       <c r="J18" t="s">
-        <v>1088</v>
+        <v>961</v>
       </c>
       <c r="K18" t="s">
         <v>46</v>
       </c>
       <c r="L18" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>624</v>
+        <v>549</v>
       </c>
       <c r="B19" t="s">
-        <v>625</v>
+        <v>550</v>
       </c>
       <c r="C19" t="s">
-        <v>626</v>
+        <v>551</v>
       </c>
       <c r="D19" t="s">
-        <v>627</v>
+        <v>552</v>
       </c>
       <c r="E19" t="s">
-        <v>628</v>
+        <v>553</v>
       </c>
       <c r="F19" t="s">
         <v>63</v>
@@ -5311,30 +4808,30 @@
         <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>1230</v>
+        <v>1084</v>
       </c>
       <c r="J19" t="s">
-        <v>855</v>
+        <v>755</v>
       </c>
       <c r="K19" t="s">
         <v>46</v>
       </c>
       <c r="L19" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>486</v>
+        <v>433</v>
       </c>
       <c r="B20" t="s">
-        <v>487</v>
+        <v>434</v>
       </c>
       <c r="C20" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="D20" t="s">
-        <v>488</v>
+        <v>435</v>
       </c>
       <c r="E20" t="s">
         <v>17</v>
@@ -5349,30 +4846,30 @@
         <v>5</v>
       </c>
       <c r="I20" t="s">
-        <v>1231</v>
+        <v>1085</v>
       </c>
       <c r="J20" t="s">
-        <v>1089</v>
+        <v>962</v>
       </c>
       <c r="K20" t="s">
         <v>46</v>
       </c>
       <c r="L20" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>604</v>
+        <v>531</v>
       </c>
       <c r="B21" t="s">
-        <v>605</v>
+        <v>532</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>606</v>
+        <v>533</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -5387,33 +4884,33 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>1232</v>
+        <v>1086</v>
       </c>
       <c r="J21" t="s">
-        <v>1090</v>
+        <v>963</v>
       </c>
       <c r="K21" t="s">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>705</v>
+        <v>626</v>
       </c>
       <c r="B22" t="s">
-        <v>706</v>
+        <v>627</v>
       </c>
       <c r="C22" t="s">
-        <v>707</v>
+        <v>628</v>
       </c>
       <c r="D22" t="s">
-        <v>708</v>
+        <v>629</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s">
         <v>28</v>
@@ -5425,30 +4922,30 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>1233</v>
+        <v>1087</v>
       </c>
       <c r="J22" t="s">
-        <v>862</v>
+        <v>762</v>
       </c>
       <c r="K22" t="s">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -5463,19 +4960,19 @@
         <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>1234</v>
+        <v>1088</v>
       </c>
       <c r="J23" t="s">
-        <v>1091</v>
+        <v>964</v>
       </c>
       <c r="K23" t="s">
         <v>46</v>
       </c>
       <c r="L23" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -5501,33 +4998,33 @@
         <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>1235</v>
+        <v>1089</v>
       </c>
       <c r="J24" t="s">
-        <v>1092</v>
+        <v>965</v>
       </c>
       <c r="K24" t="s">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s">
         <v>87</v>
-      </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" t="s">
-        <v>91</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -5539,30 +5036,30 @@
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>1236</v>
+        <v>1090</v>
       </c>
       <c r="J25" t="s">
-        <v>1093</v>
+        <v>966</v>
       </c>
       <c r="K25" t="s">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="B26" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>382</v>
+        <v>339</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -5577,33 +5074,33 @@
         <v>4</v>
       </c>
       <c r="I26" t="s">
-        <v>1237</v>
+        <v>1091</v>
       </c>
       <c r="J26" t="s">
-        <v>834</v>
+        <v>736</v>
       </c>
       <c r="K26" t="s">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>573</v>
+        <v>503</v>
       </c>
       <c r="B27" t="s">
-        <v>574</v>
+        <v>504</v>
       </c>
       <c r="C27" t="s">
-        <v>484</v>
+        <v>432</v>
       </c>
       <c r="D27" t="s">
-        <v>575</v>
+        <v>505</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -5615,33 +5112,33 @@
         <v>4</v>
       </c>
       <c r="I27" t="s">
-        <v>1238</v>
+        <v>1092</v>
       </c>
       <c r="J27" t="s">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="K27" t="s">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>670</v>
+        <v>591</v>
       </c>
       <c r="B28" t="s">
-        <v>671</v>
+        <v>592</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>672</v>
+        <v>593</v>
       </c>
       <c r="E28" t="s">
-        <v>633</v>
+        <v>558</v>
       </c>
       <c r="F28" t="s">
         <v>53</v>
@@ -5653,30 +5150,30 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>1239</v>
+        <v>1093</v>
       </c>
       <c r="J28" t="s">
-        <v>1094</v>
+        <v>967</v>
       </c>
       <c r="K28" t="s">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="B29" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="C29" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="D29" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="E29" t="s">
         <v>45</v>
@@ -5691,30 +5188,30 @@
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>1240</v>
+        <v>1094</v>
       </c>
       <c r="J29" t="s">
-        <v>1095</v>
+        <v>968</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
       </c>
       <c r="L29" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="C30" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="D30" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -5729,33 +5226,33 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>1241</v>
+        <v>1095</v>
       </c>
       <c r="J30" t="s">
-        <v>1096</v>
+        <v>969</v>
       </c>
       <c r="K30" t="s">
         <v>46</v>
       </c>
       <c r="L30" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>875</v>
+        <v>773</v>
       </c>
       <c r="D31" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -5767,19 +5264,19 @@
         <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>1242</v>
+        <v>1096</v>
       </c>
       <c r="J31" t="s">
-        <v>1097</v>
+        <v>970</v>
       </c>
       <c r="K31" t="s">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -5805,30 +5302,30 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>1243</v>
+        <v>1097</v>
       </c>
       <c r="J32" t="s">
-        <v>822</v>
+        <v>726</v>
       </c>
       <c r="K32" t="s">
         <v>46</v>
       </c>
       <c r="L32" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>724</v>
+        <v>641</v>
       </c>
       <c r="B33" t="s">
-        <v>725</v>
+        <v>642</v>
       </c>
       <c r="C33" t="s">
-        <v>726</v>
+        <v>643</v>
       </c>
       <c r="D33" t="s">
-        <v>727</v>
+        <v>644</v>
       </c>
       <c r="E33" t="s">
         <v>52</v>
@@ -5843,30 +5340,30 @@
         <v>7</v>
       </c>
       <c r="I33" t="s">
-        <v>1244</v>
+        <v>1098</v>
       </c>
       <c r="J33" t="s">
-        <v>1098</v>
+        <v>971</v>
       </c>
       <c r="K33" t="s">
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="B34" t="s">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="C34" t="s">
         <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="E34" t="s">
         <v>39</v>
@@ -5881,33 +5378,33 @@
         <v>5</v>
       </c>
       <c r="I34" t="s">
-        <v>1245</v>
+        <v>1099</v>
       </c>
       <c r="J34" t="s">
-        <v>1099</v>
+        <v>972</v>
       </c>
       <c r="K34" t="s">
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="C35" t="s">
         <v>74</v>
       </c>
       <c r="D35" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
         <v>28</v>
@@ -5919,30 +5416,30 @@
         <v>7</v>
       </c>
       <c r="I35" t="s">
-        <v>1246</v>
+        <v>1100</v>
       </c>
       <c r="J35" t="s">
-        <v>833</v>
+        <v>735</v>
       </c>
       <c r="K35" t="s">
         <v>46</v>
       </c>
       <c r="L35" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>641</v>
+        <v>566</v>
       </c>
       <c r="B36" t="s">
-        <v>642</v>
+        <v>567</v>
       </c>
       <c r="C36" t="s">
         <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>643</v>
+        <v>568</v>
       </c>
       <c r="E36" t="s">
         <v>52</v>
@@ -5957,30 +5454,30 @@
         <v>7</v>
       </c>
       <c r="I36" t="s">
-        <v>1247</v>
+        <v>1101</v>
       </c>
       <c r="J36" t="s">
-        <v>1100</v>
+        <v>973</v>
       </c>
       <c r="K36" t="s">
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>332</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="E37" t="s">
         <v>76</v>
@@ -5995,30 +5492,30 @@
         <v>8</v>
       </c>
       <c r="I37" t="s">
-        <v>1248</v>
+        <v>1102</v>
       </c>
       <c r="J37" t="s">
-        <v>1101</v>
+        <v>974</v>
       </c>
       <c r="K37" t="s">
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>515</v>
+        <v>458</v>
       </c>
       <c r="B38" t="s">
-        <v>516</v>
+        <v>459</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="E38" t="s">
         <v>39</v>
@@ -6033,33 +5530,33 @@
         <v>7</v>
       </c>
       <c r="I38" t="s">
-        <v>1249</v>
+        <v>1103</v>
       </c>
       <c r="J38" t="s">
-        <v>1102</v>
+        <v>975</v>
       </c>
       <c r="K38" t="s">
         <v>46</v>
       </c>
       <c r="L38" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="B39" t="s">
-        <v>441</v>
+        <v>391</v>
       </c>
       <c r="C39" t="s">
-        <v>442</v>
+        <v>392</v>
       </c>
       <c r="D39" t="s">
-        <v>443</v>
+        <v>393</v>
       </c>
       <c r="E39" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F39" t="s">
         <v>40</v>
@@ -6071,33 +5568,33 @@
         <v>9</v>
       </c>
       <c r="I39" t="s">
-        <v>1250</v>
+        <v>1104</v>
       </c>
       <c r="J39" t="s">
-        <v>839</v>
+        <v>741</v>
       </c>
       <c r="K39" t="s">
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>521</v>
+        <v>464</v>
       </c>
       <c r="B40" t="s">
-        <v>522</v>
+        <v>465</v>
       </c>
       <c r="C40" t="s">
-        <v>523</v>
+        <v>466</v>
       </c>
       <c r="D40" t="s">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="E40" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F40" t="s">
         <v>40</v>
@@ -6109,33 +5606,33 @@
         <v>9</v>
       </c>
       <c r="I40" t="s">
-        <v>1251</v>
+        <v>1105</v>
       </c>
       <c r="J40" t="s">
-        <v>845</v>
+        <v>746</v>
       </c>
       <c r="K40" t="s">
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s">
-        <v>351</v>
+        <v>308</v>
       </c>
       <c r="C41" t="s">
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
         <v>28</v>
@@ -6147,33 +5644,33 @@
         <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>1252</v>
+        <v>1106</v>
       </c>
       <c r="J41" t="s">
-        <v>1103</v>
+        <v>976</v>
       </c>
       <c r="K41" t="s">
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>766</v>
+        <v>683</v>
       </c>
       <c r="B42" t="s">
-        <v>767</v>
+        <v>684</v>
       </c>
       <c r="C42" t="s">
-        <v>768</v>
+        <v>685</v>
       </c>
       <c r="D42" t="s">
-        <v>769</v>
+        <v>686</v>
       </c>
       <c r="E42" t="s">
-        <v>628</v>
+        <v>553</v>
       </c>
       <c r="F42" t="s">
         <v>63</v>
@@ -6185,30 +5682,30 @@
         <v>9</v>
       </c>
       <c r="I42" t="s">
-        <v>1253</v>
+        <v>1107</v>
       </c>
       <c r="J42" t="s">
-        <v>819</v>
+        <v>723</v>
       </c>
       <c r="K42" t="s">
         <v>46</v>
       </c>
       <c r="L42" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="B43" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
@@ -6223,33 +5720,33 @@
         <v>5</v>
       </c>
       <c r="I43" t="s">
-        <v>1254</v>
+        <v>1108</v>
       </c>
       <c r="J43" t="s">
-        <v>1104</v>
+        <v>977</v>
       </c>
       <c r="K43" t="s">
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>418</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="C44" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="D44" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="E44" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="F44" t="s">
         <v>40</v>
@@ -6261,33 +5758,33 @@
         <v>5</v>
       </c>
       <c r="I44" t="s">
-        <v>1255</v>
+        <v>1109</v>
       </c>
       <c r="J44" t="s">
-        <v>1105</v>
+        <v>978</v>
       </c>
       <c r="K44" t="s">
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>580</v>
+        <v>510</v>
       </c>
       <c r="B45" t="s">
-        <v>581</v>
+        <v>511</v>
       </c>
       <c r="C45" t="s">
-        <v>582</v>
+        <v>512</v>
       </c>
       <c r="D45" t="s">
-        <v>583</v>
+        <v>513</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -6299,33 +5796,33 @@
         <v>5</v>
       </c>
       <c r="I45" t="s">
-        <v>1256</v>
+        <v>1110</v>
       </c>
       <c r="J45" t="s">
-        <v>851</v>
+        <v>751</v>
       </c>
       <c r="K45" t="s">
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s">
         <v>28</v>
@@ -6337,7 +5834,7 @@
         <v>7</v>
       </c>
       <c r="I46" t="s">
-        <v>1257</v>
+        <v>1111</v>
       </c>
       <c r="J46" t="s">
         <v>47</v>
@@ -6346,21 +5843,21 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>800</v>
+        <v>705</v>
       </c>
       <c r="B47" t="s">
-        <v>801</v>
+        <v>706</v>
       </c>
       <c r="C47" t="s">
-        <v>582</v>
+        <v>512</v>
       </c>
       <c r="D47" t="s">
-        <v>802</v>
+        <v>707</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -6375,33 +5872,33 @@
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>1258</v>
+        <v>1112</v>
       </c>
       <c r="J47" t="s">
-        <v>1106</v>
+        <v>979</v>
       </c>
       <c r="K47" t="s">
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
         <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -6416,30 +5913,30 @@
         <v>47</v>
       </c>
       <c r="J48" t="s">
-        <v>1107</v>
+        <v>980</v>
       </c>
       <c r="K48" t="s">
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>512</v>
+        <v>455</v>
       </c>
       <c r="B49" t="s">
-        <v>513</v>
+        <v>456</v>
       </c>
       <c r="C49" t="s">
         <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="E49" t="s">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -6451,33 +5948,33 @@
         <v>11</v>
       </c>
       <c r="I49" t="s">
-        <v>1259</v>
+        <v>1113</v>
       </c>
       <c r="J49" t="s">
-        <v>1108</v>
+        <v>981</v>
       </c>
       <c r="K49" t="s">
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>532</v>
+        <v>472</v>
       </c>
       <c r="B50" t="s">
-        <v>533</v>
+        <v>473</v>
       </c>
       <c r="C50" t="s">
-        <v>534</v>
+        <v>474</v>
       </c>
       <c r="D50" t="s">
-        <v>535</v>
+        <v>475</v>
       </c>
       <c r="E50" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
@@ -6489,33 +5986,33 @@
         <v>8</v>
       </c>
       <c r="I50" t="s">
-        <v>536</v>
+        <v>476</v>
       </c>
       <c r="J50" t="s">
-        <v>1109</v>
+        <v>982</v>
       </c>
       <c r="K50" t="s">
         <v>46</v>
       </c>
       <c r="L50" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="B51" t="s">
-        <v>571</v>
+        <v>501</v>
       </c>
       <c r="C51" t="s">
         <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>572</v>
+        <v>502</v>
       </c>
       <c r="E51" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -6527,10 +6024,10 @@
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>1260</v>
+        <v>1114</v>
       </c>
       <c r="J51" t="s">
-        <v>1110</v>
+        <v>983</v>
       </c>
       <c r="K51" t="s">
         <v>0</v>
@@ -6539,18 +6036,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B52" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
         <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -6565,33 +6062,33 @@
         <v>11</v>
       </c>
       <c r="I52" t="s">
-        <v>1261</v>
+        <v>1115</v>
       </c>
       <c r="J52" t="s">
-        <v>1111</v>
+        <v>984</v>
       </c>
       <c r="K52" t="s">
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>770</v>
+        <v>687</v>
       </c>
       <c r="B53" t="s">
-        <v>771</v>
+        <v>688</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>772</v>
+        <v>689</v>
       </c>
       <c r="E53" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
@@ -6603,33 +6100,33 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>1262</v>
+        <v>1116</v>
       </c>
       <c r="J53" t="s">
-        <v>1112</v>
+        <v>985</v>
       </c>
       <c r="K53" t="s">
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" t="s">
         <v>82</v>
-      </c>
-      <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" t="s">
-        <v>85</v>
-      </c>
-      <c r="E54" t="s">
-        <v>86</v>
       </c>
       <c r="F54" t="s">
         <v>28</v>
@@ -6644,27 +6141,27 @@
         <v>47</v>
       </c>
       <c r="J54" t="s">
-        <v>825</v>
+        <v>729</v>
       </c>
       <c r="K54" t="s">
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
@@ -6679,33 +6176,33 @@
         <v>6</v>
       </c>
       <c r="I55" t="s">
-        <v>1263</v>
+        <v>1117</v>
       </c>
       <c r="J55" t="s">
-        <v>811</v>
+        <v>716</v>
       </c>
       <c r="K55" t="s">
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>584</v>
+        <v>514</v>
       </c>
       <c r="B56" t="s">
-        <v>585</v>
+        <v>515</v>
       </c>
       <c r="C56" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="D56" t="s">
-        <v>586</v>
+        <v>516</v>
       </c>
       <c r="E56" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
@@ -6717,33 +6214,33 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>1264</v>
+        <v>1118</v>
       </c>
       <c r="J56" t="s">
-        <v>1113</v>
+        <v>986</v>
       </c>
       <c r="K56" t="s">
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>690</v>
+        <v>611</v>
       </c>
       <c r="B57" t="s">
-        <v>691</v>
+        <v>612</v>
       </c>
       <c r="C57" t="s">
-        <v>692</v>
+        <v>613</v>
       </c>
       <c r="D57" t="s">
-        <v>693</v>
+        <v>614</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s">
         <v>28</v>
@@ -6755,30 +6252,30 @@
         <v>7</v>
       </c>
       <c r="I57" t="s">
-        <v>1265</v>
+        <v>1119</v>
       </c>
       <c r="J57" t="s">
-        <v>1114</v>
+        <v>987</v>
       </c>
       <c r="K57" t="s">
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>598</v>
+        <v>525</v>
       </c>
       <c r="B58" t="s">
-        <v>599</v>
+        <v>526</v>
       </c>
       <c r="C58" t="s">
         <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>600</v>
+        <v>527</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -6793,33 +6290,33 @@
         <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>1266</v>
+        <v>1120</v>
       </c>
       <c r="J58" t="s">
-        <v>852</v>
+        <v>752</v>
       </c>
       <c r="K58" t="s">
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>698</v>
+        <v>619</v>
       </c>
       <c r="B59" t="s">
-        <v>699</v>
+        <v>620</v>
       </c>
       <c r="C59" t="s">
-        <v>700</v>
+        <v>621</v>
       </c>
       <c r="D59" t="s">
-        <v>701</v>
+        <v>622</v>
       </c>
       <c r="E59" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s">
         <v>28</v>
@@ -6831,7 +6328,7 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>1267</v>
+        <v>1121</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
@@ -6840,21 +6337,21 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>663</v>
+        <v>588</v>
       </c>
       <c r="B60" t="s">
-        <v>664</v>
+        <v>589</v>
       </c>
       <c r="C60" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="D60" t="s">
-        <v>665</v>
+        <v>590</v>
       </c>
       <c r="E60" t="s">
         <v>52</v>
@@ -6869,30 +6366,30 @@
         <v>11</v>
       </c>
       <c r="I60" t="s">
-        <v>1268</v>
+        <v>1122</v>
       </c>
       <c r="J60" t="s">
-        <v>1115</v>
+        <v>988</v>
       </c>
       <c r="K60" t="s">
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="C61" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="D61" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="E61" t="s">
         <v>45</v>
@@ -6907,7 +6404,7 @@
         <v>7</v>
       </c>
       <c r="I61" t="s">
-        <v>1269</v>
+        <v>1123</v>
       </c>
       <c r="J61" t="s">
         <v>47</v>
@@ -6916,24 +6413,24 @@
         <v>46</v>
       </c>
       <c r="L61" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="B62" t="s">
-        <v>438</v>
+        <v>388</v>
       </c>
       <c r="C62" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="D62" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="E62" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="F62" t="s">
         <v>40</v>
@@ -6945,10 +6442,10 @@
         <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>1270</v>
+        <v>1124</v>
       </c>
       <c r="J62" t="s">
-        <v>838</v>
+        <v>740</v>
       </c>
       <c r="K62" t="s">
         <v>0</v>
@@ -6957,7 +6454,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -6983,19 +6480,19 @@
         <v>31</v>
       </c>
       <c r="I63" t="s">
-        <v>1271</v>
+        <v>1125</v>
       </c>
       <c r="J63" t="s">
-        <v>1116</v>
+        <v>989</v>
       </c>
       <c r="K63" t="s">
         <v>46</v>
       </c>
       <c r="L63" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -7021,30 +6518,30 @@
         <v>24</v>
       </c>
       <c r="I64" t="s">
-        <v>1272</v>
+        <v>1126</v>
       </c>
       <c r="J64" t="s">
-        <v>1117</v>
+        <v>990</v>
       </c>
       <c r="K64" t="s">
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="B65" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="C65" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="D65" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -7059,33 +6556,33 @@
         <v>7</v>
       </c>
       <c r="I65" t="s">
-        <v>1273</v>
+        <v>1127</v>
       </c>
       <c r="J65" t="s">
-        <v>1118</v>
+        <v>991</v>
       </c>
       <c r="K65" t="s">
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>479</v>
+        <v>429</v>
       </c>
       <c r="B66" t="s">
-        <v>480</v>
+        <v>430</v>
       </c>
       <c r="C66" t="s">
         <v>60</v>
       </c>
       <c r="D66" t="s">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -7097,33 +6594,33 @@
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>1274</v>
+        <v>1128</v>
       </c>
       <c r="J66" t="s">
-        <v>1119</v>
+        <v>992</v>
       </c>
       <c r="K66" t="s">
         <v>46</v>
       </c>
       <c r="L66" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>649</v>
+        <v>574</v>
       </c>
       <c r="B67" t="s">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="C67" t="s">
         <v>60</v>
       </c>
       <c r="D67" t="s">
-        <v>651</v>
+        <v>576</v>
       </c>
       <c r="E67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s">
         <v>28</v>
@@ -7135,33 +6632,33 @@
         <v>6</v>
       </c>
       <c r="I67" t="s">
-        <v>1275</v>
+        <v>1129</v>
       </c>
       <c r="J67" t="s">
-        <v>856</v>
+        <v>756</v>
       </c>
       <c r="K67" t="s">
         <v>46</v>
       </c>
       <c r="L67" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>594</v>
+        <v>521</v>
       </c>
       <c r="B68" t="s">
-        <v>595</v>
+        <v>522</v>
       </c>
       <c r="C68" t="s">
-        <v>596</v>
+        <v>523</v>
       </c>
       <c r="D68" t="s">
-        <v>597</v>
+        <v>524</v>
       </c>
       <c r="E68" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
@@ -7173,33 +6670,33 @@
         <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>1276</v>
+        <v>1130</v>
       </c>
       <c r="J68" t="s">
-        <v>1120</v>
+        <v>993</v>
       </c>
       <c r="K68" t="s">
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>629</v>
+        <v>554</v>
       </c>
       <c r="B69" t="s">
-        <v>630</v>
+        <v>555</v>
       </c>
       <c r="C69" t="s">
-        <v>631</v>
+        <v>556</v>
       </c>
       <c r="D69" t="s">
-        <v>632</v>
+        <v>557</v>
       </c>
       <c r="E69" t="s">
-        <v>633</v>
+        <v>558</v>
       </c>
       <c r="F69" t="s">
         <v>53</v>
@@ -7211,33 +6708,33 @@
         <v>7</v>
       </c>
       <c r="I69" t="s">
-        <v>1277</v>
+        <v>1131</v>
       </c>
       <c r="J69" t="s">
-        <v>1121</v>
+        <v>994</v>
       </c>
       <c r="K69" t="s">
         <v>46</v>
       </c>
       <c r="L69" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>728</v>
+        <v>645</v>
       </c>
       <c r="B70" t="s">
-        <v>729</v>
+        <v>646</v>
       </c>
       <c r="C70" t="s">
-        <v>730</v>
+        <v>647</v>
       </c>
       <c r="D70" t="s">
-        <v>731</v>
+        <v>648</v>
       </c>
       <c r="E70" t="s">
-        <v>633</v>
+        <v>558</v>
       </c>
       <c r="F70" t="s">
         <v>53</v>
@@ -7249,33 +6746,33 @@
         <v>5</v>
       </c>
       <c r="I70" t="s">
-        <v>1278</v>
+        <v>1132</v>
       </c>
       <c r="J70" t="s">
-        <v>865</v>
+        <v>765</v>
       </c>
       <c r="K70" t="s">
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="B71" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="C71" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="D71" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="E71" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F71" t="s">
         <v>40</v>
@@ -7287,33 +6784,33 @@
         <v>3</v>
       </c>
       <c r="I71" t="s">
-        <v>1279</v>
+        <v>1133</v>
       </c>
       <c r="J71" t="s">
-        <v>1122</v>
+        <v>995</v>
       </c>
       <c r="K71" t="s">
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>499</v>
+        <v>442</v>
       </c>
       <c r="B72" t="s">
-        <v>500</v>
+        <v>443</v>
       </c>
       <c r="C72" t="s">
         <v>60</v>
       </c>
       <c r="D72" t="s">
-        <v>501</v>
+        <v>444</v>
       </c>
       <c r="E72" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="F72" t="s">
         <v>40</v>
@@ -7325,30 +6822,30 @@
         <v>7</v>
       </c>
       <c r="I72" t="s">
-        <v>1280</v>
+        <v>1134</v>
       </c>
       <c r="J72" t="s">
-        <v>1123</v>
+        <v>996</v>
       </c>
       <c r="K72" t="s">
         <v>46</v>
       </c>
       <c r="L72" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="B73" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="E73" t="s">
         <v>34</v>
@@ -7363,30 +6860,30 @@
         <v>4</v>
       </c>
       <c r="I73" t="s">
-        <v>1281</v>
+        <v>1135</v>
       </c>
       <c r="J73" t="s">
-        <v>1124</v>
+        <v>997</v>
       </c>
       <c r="K73" t="s">
         <v>46</v>
       </c>
       <c r="L73" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>656</v>
+        <v>581</v>
       </c>
       <c r="B74" t="s">
-        <v>657</v>
+        <v>582</v>
       </c>
       <c r="C74" t="s">
         <v>60</v>
       </c>
       <c r="D74" t="s">
-        <v>658</v>
+        <v>583</v>
       </c>
       <c r="E74" t="s">
         <v>52</v>
@@ -7404,27 +6901,27 @@
         <v>47</v>
       </c>
       <c r="J74" t="s">
-        <v>817</v>
+        <v>721</v>
       </c>
       <c r="K74" t="s">
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>752</v>
+        <v>669</v>
       </c>
       <c r="B75" t="s">
-        <v>753</v>
+        <v>670</v>
       </c>
       <c r="C75" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D75" t="s">
-        <v>754</v>
+        <v>671</v>
       </c>
       <c r="E75" t="s">
         <v>17</v>
@@ -7439,33 +6936,33 @@
         <v>6</v>
       </c>
       <c r="I75" t="s">
-        <v>1282</v>
+        <v>1136</v>
       </c>
       <c r="J75" t="s">
-        <v>1125</v>
+        <v>998</v>
       </c>
       <c r="K75" t="s">
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>525</v>
+        <v>468</v>
       </c>
       <c r="B76" t="s">
-        <v>526</v>
+        <v>469</v>
       </c>
       <c r="C76" t="s">
-        <v>527</v>
+        <v>470</v>
       </c>
       <c r="D76" t="s">
-        <v>528</v>
+        <v>471</v>
       </c>
       <c r="E76" t="s">
-        <v>497</v>
+        <v>440</v>
       </c>
       <c r="F76" t="s">
         <v>6</v>
@@ -7477,10 +6974,10 @@
         <v>7</v>
       </c>
       <c r="I76" t="s">
-        <v>1283</v>
+        <v>1137</v>
       </c>
       <c r="J76" t="s">
-        <v>846</v>
+        <v>747</v>
       </c>
       <c r="K76" t="s">
         <v>0</v>
@@ -7489,21 +6986,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>732</v>
+        <v>649</v>
       </c>
       <c r="B77" t="s">
-        <v>733</v>
+        <v>650</v>
       </c>
       <c r="C77" t="s">
-        <v>734</v>
+        <v>651</v>
       </c>
       <c r="D77" t="s">
-        <v>735</v>
+        <v>652</v>
       </c>
       <c r="E77" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="F77" t="s">
         <v>28</v>
@@ -7515,33 +7012,33 @@
         <v>6</v>
       </c>
       <c r="I77" t="s">
-        <v>1284</v>
+        <v>1138</v>
       </c>
       <c r="J77" t="s">
-        <v>866</v>
+        <v>766</v>
       </c>
       <c r="K77" t="s">
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>634</v>
+        <v>559</v>
       </c>
       <c r="B78" t="s">
-        <v>635</v>
+        <v>560</v>
       </c>
       <c r="C78" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="D78" t="s">
-        <v>636</v>
+        <v>561</v>
       </c>
       <c r="E78" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F78" t="s">
         <v>28</v>
@@ -7553,10 +7050,10 @@
         <v>6</v>
       </c>
       <c r="I78" t="s">
-        <v>1285</v>
+        <v>1139</v>
       </c>
       <c r="J78" t="s">
-        <v>1126</v>
+        <v>999</v>
       </c>
       <c r="K78" t="s">
         <v>46</v>
@@ -7565,18 +7062,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>405</v>
+        <v>362</v>
       </c>
       <c r="B79" t="s">
-        <v>406</v>
+        <v>363</v>
       </c>
       <c r="C79" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="D79" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
       <c r="E79" t="s">
         <v>45</v>
@@ -7591,30 +7088,30 @@
         <v>7</v>
       </c>
       <c r="I79" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="J79" t="s">
-        <v>1127</v>
+        <v>1000</v>
       </c>
       <c r="K79" t="s">
         <v>46</v>
       </c>
       <c r="L79" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>518</v>
+        <v>461</v>
       </c>
       <c r="B80" t="s">
-        <v>519</v>
+        <v>462</v>
       </c>
       <c r="C80" t="s">
         <v>60</v>
       </c>
       <c r="D80" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="E80" t="s">
         <v>76</v>
@@ -7629,33 +7126,33 @@
         <v>5</v>
       </c>
       <c r="I80" t="s">
-        <v>1286</v>
+        <v>1140</v>
       </c>
       <c r="J80" t="s">
-        <v>1128</v>
+        <v>1001</v>
       </c>
       <c r="K80" t="s">
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="B81" t="s">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="E81" t="s">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="F81" t="s">
         <v>6</v>
@@ -7667,30 +7164,30 @@
         <v>5</v>
       </c>
       <c r="I81" t="s">
-        <v>1287</v>
+        <v>1141</v>
       </c>
       <c r="J81" t="s">
-        <v>837</v>
+        <v>739</v>
       </c>
       <c r="K81" t="s">
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="B82" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="C82" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="D82" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="E82" t="s">
         <v>39</v>
@@ -7705,33 +7202,33 @@
         <v>8</v>
       </c>
       <c r="I82" t="s">
-        <v>1288</v>
+        <v>1142</v>
       </c>
       <c r="J82" t="s">
-        <v>840</v>
+        <v>742</v>
       </c>
       <c r="K82" t="s">
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>686</v>
+        <v>607</v>
       </c>
       <c r="B83" t="s">
-        <v>687</v>
+        <v>608</v>
       </c>
       <c r="C83" t="s">
         <v>60</v>
       </c>
       <c r="D83" t="s">
-        <v>688</v>
+        <v>609</v>
       </c>
       <c r="E83" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F83" t="s">
         <v>28</v>
@@ -7743,33 +7240,33 @@
         <v>5</v>
       </c>
       <c r="I83" t="s">
-        <v>689</v>
+        <v>610</v>
       </c>
       <c r="J83" t="s">
-        <v>1129</v>
+        <v>1002</v>
       </c>
       <c r="K83" t="s">
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>644</v>
+        <v>569</v>
       </c>
       <c r="B84" t="s">
-        <v>645</v>
+        <v>570</v>
       </c>
       <c r="C84" t="s">
-        <v>646</v>
+        <v>571</v>
       </c>
       <c r="D84" t="s">
-        <v>647</v>
+        <v>572</v>
       </c>
       <c r="E84" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F84" t="s">
         <v>28</v>
@@ -7781,33 +7278,33 @@
         <v>5</v>
       </c>
       <c r="I84" t="s">
-        <v>648</v>
+        <v>573</v>
       </c>
       <c r="J84" t="s">
-        <v>1130</v>
+        <v>1003</v>
       </c>
       <c r="K84" t="s">
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="B85" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="C85" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="D85" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="E85" t="s">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -7819,10 +7316,10 @@
         <v>5</v>
       </c>
       <c r="I85" t="s">
-        <v>1289</v>
+        <v>1143</v>
       </c>
       <c r="J85" t="s">
-        <v>1131</v>
+        <v>1004</v>
       </c>
       <c r="K85" t="s">
         <v>0</v>
@@ -7831,21 +7328,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="D86" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="E86" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
@@ -7857,33 +7354,33 @@
         <v>11</v>
       </c>
       <c r="I86" t="s">
-        <v>1290</v>
+        <v>1144</v>
       </c>
       <c r="J86" t="s">
-        <v>1132</v>
+        <v>1005</v>
       </c>
       <c r="K86" t="s">
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="B87" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="C87" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="D87" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="E87" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F87" t="s">
         <v>28</v>
@@ -7895,33 +7392,33 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>1291</v>
+        <v>1145</v>
       </c>
       <c r="J87" t="s">
-        <v>1133</v>
+        <v>1006</v>
       </c>
       <c r="K87" t="s">
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="B88" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="C88" t="s">
         <v>60</v>
       </c>
       <c r="D88" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="E88" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F88" t="s">
         <v>40</v>
@@ -7933,33 +7430,33 @@
         <v>11</v>
       </c>
       <c r="I88" t="s">
-        <v>1292</v>
+        <v>1146</v>
       </c>
       <c r="J88" t="s">
-        <v>1134</v>
+        <v>1007</v>
       </c>
       <c r="K88" t="s">
         <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>508</v>
+        <v>451</v>
       </c>
       <c r="B89" t="s">
-        <v>509</v>
+        <v>452</v>
       </c>
       <c r="C89" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
       <c r="D89" t="s">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="E89" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F89" t="s">
         <v>6</v>
@@ -7971,30 +7468,30 @@
         <v>5</v>
       </c>
       <c r="I89" t="s">
-        <v>1293</v>
+        <v>1147</v>
       </c>
       <c r="J89" t="s">
-        <v>844</v>
+        <v>745</v>
       </c>
       <c r="K89" t="s">
         <v>46</v>
       </c>
       <c r="L89" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>505</v>
+        <v>448</v>
       </c>
       <c r="B90" t="s">
-        <v>506</v>
+        <v>449</v>
       </c>
       <c r="C90" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D90" t="s">
-        <v>507</v>
+        <v>450</v>
       </c>
       <c r="E90" t="s">
         <v>5</v>
@@ -8009,19 +7506,19 @@
         <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>1294</v>
+        <v>1148</v>
       </c>
       <c r="J90" t="s">
-        <v>1135</v>
+        <v>1008</v>
       </c>
       <c r="K90" t="s">
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -8047,33 +7544,33 @@
         <v>5</v>
       </c>
       <c r="I91" t="s">
-        <v>1295</v>
+        <v>1149</v>
       </c>
       <c r="J91" t="s">
-        <v>1136</v>
+        <v>1009</v>
       </c>
       <c r="K91" t="s">
         <v>46</v>
       </c>
       <c r="L91" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>679</v>
+        <v>600</v>
       </c>
       <c r="B92" t="s">
-        <v>680</v>
+        <v>601</v>
       </c>
       <c r="C92" t="s">
-        <v>681</v>
+        <v>602</v>
       </c>
       <c r="D92" t="s">
-        <v>682</v>
+        <v>603</v>
       </c>
       <c r="E92" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F92" t="s">
         <v>28</v>
@@ -8085,33 +7582,33 @@
         <v>8</v>
       </c>
       <c r="I92" t="s">
-        <v>1296</v>
+        <v>1150</v>
       </c>
       <c r="J92" t="s">
-        <v>859</v>
+        <v>759</v>
       </c>
       <c r="K92" t="s">
         <v>46</v>
       </c>
       <c r="L92" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="D93" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="E93" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F93" t="s">
         <v>28</v>
@@ -8123,33 +7620,33 @@
         <v>3</v>
       </c>
       <c r="I93" t="s">
-        <v>1297</v>
+        <v>1151</v>
       </c>
       <c r="J93" t="s">
-        <v>1137</v>
+        <v>1010</v>
       </c>
       <c r="K93" t="s">
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="B94" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="C94" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="D94" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="E94" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F94" t="s">
         <v>40</v>
@@ -8164,30 +7661,30 @@
         <v>47</v>
       </c>
       <c r="J94" t="s">
-        <v>1138</v>
+        <v>1011</v>
       </c>
       <c r="K94" t="s">
         <v>46</v>
       </c>
       <c r="L94" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C95" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="D95" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="E95" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F95" t="s">
         <v>28</v>
@@ -8199,33 +7696,33 @@
         <v>5</v>
       </c>
       <c r="I95" t="s">
-        <v>1298</v>
+        <v>1152</v>
       </c>
       <c r="J95" t="s">
-        <v>1139</v>
+        <v>1012</v>
       </c>
       <c r="K95" t="s">
         <v>46</v>
       </c>
       <c r="L95" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="D96" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E96" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="F96" t="s">
         <v>12</v>
@@ -8237,33 +7734,33 @@
         <v>5</v>
       </c>
       <c r="I96" t="s">
-        <v>1299</v>
+        <v>1153</v>
       </c>
       <c r="J96" t="s">
-        <v>1140</v>
+        <v>1013</v>
       </c>
       <c r="K96" t="s">
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="B97" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="C97" t="s">
         <v>74</v>
       </c>
       <c r="D97" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="E97" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F97" t="s">
         <v>28</v>
@@ -8275,30 +7772,30 @@
         <v>3</v>
       </c>
       <c r="I97" t="s">
-        <v>1300</v>
+        <v>1154</v>
       </c>
       <c r="J97" t="s">
-        <v>1141</v>
+        <v>1014</v>
       </c>
       <c r="K97" t="s">
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>783</v>
+        <v>695</v>
       </c>
       <c r="B98" t="s">
-        <v>784</v>
+        <v>696</v>
       </c>
       <c r="C98" t="s">
         <v>50</v>
       </c>
       <c r="D98" t="s">
-        <v>785</v>
+        <v>697</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
@@ -8313,30 +7810,30 @@
         <v>3</v>
       </c>
       <c r="I98" t="s">
-        <v>1301</v>
+        <v>1155</v>
       </c>
       <c r="J98" t="s">
-        <v>1142</v>
+        <v>1015</v>
       </c>
       <c r="K98" t="s">
         <v>46</v>
       </c>
       <c r="L98" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="B99" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="C99" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="D99" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
@@ -8351,30 +7848,30 @@
         <v>4</v>
       </c>
       <c r="I99" t="s">
-        <v>1302</v>
+        <v>1156</v>
       </c>
       <c r="J99" t="s">
-        <v>1143</v>
+        <v>1016</v>
       </c>
       <c r="K99" t="s">
         <v>46</v>
       </c>
       <c r="L99" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>601</v>
+        <v>528</v>
       </c>
       <c r="B100" t="s">
-        <v>602</v>
+        <v>529</v>
       </c>
       <c r="C100" t="s">
         <v>74</v>
       </c>
       <c r="D100" t="s">
-        <v>603</v>
+        <v>530</v>
       </c>
       <c r="E100" t="s">
         <v>71</v>
@@ -8389,19 +7886,19 @@
         <v>4</v>
       </c>
       <c r="I100" t="s">
-        <v>1303</v>
+        <v>1157</v>
       </c>
       <c r="J100" t="s">
-        <v>853</v>
+        <v>753</v>
       </c>
       <c r="K100" t="s">
         <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>67</v>
       </c>
@@ -8427,30 +7924,30 @@
         <v>31</v>
       </c>
       <c r="I101" t="s">
-        <v>1304</v>
+        <v>1158</v>
       </c>
       <c r="J101" t="s">
-        <v>1144</v>
+        <v>1017</v>
       </c>
       <c r="K101" t="s">
         <v>46</v>
       </c>
       <c r="L101" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>683</v>
+        <v>604</v>
       </c>
       <c r="B102" t="s">
-        <v>684</v>
+        <v>605</v>
       </c>
       <c r="C102" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="D102" t="s">
-        <v>685</v>
+        <v>606</v>
       </c>
       <c r="E102" t="s">
         <v>52</v>
@@ -8465,33 +7962,33 @@
         <v>6</v>
       </c>
       <c r="I102" t="s">
-        <v>1305</v>
+        <v>1159</v>
       </c>
       <c r="J102" t="s">
-        <v>1145</v>
+        <v>1018</v>
       </c>
       <c r="K102" t="s">
         <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="C103" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="D103" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="E103" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
@@ -8503,30 +8000,30 @@
         <v>14</v>
       </c>
       <c r="I103" t="s">
-        <v>1306</v>
+        <v>1160</v>
       </c>
       <c r="J103" t="s">
-        <v>1146</v>
+        <v>1019</v>
       </c>
       <c r="K103" t="s">
         <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="B104" t="s">
-        <v>476</v>
+        <v>426</v>
       </c>
       <c r="C104" t="s">
-        <v>477</v>
+        <v>427</v>
       </c>
       <c r="D104" t="s">
-        <v>478</v>
+        <v>428</v>
       </c>
       <c r="E104" t="s">
         <v>45</v>
@@ -8541,33 +8038,33 @@
         <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>1307</v>
+        <v>1161</v>
       </c>
       <c r="J104" t="s">
-        <v>1147</v>
+        <v>1020</v>
       </c>
       <c r="K104" t="s">
         <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="B105" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D105" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F105" t="s">
         <v>63</v>
@@ -8579,30 +8076,30 @@
         <v>4</v>
       </c>
       <c r="I105" t="s">
-        <v>1308</v>
+        <v>1162</v>
       </c>
       <c r="J105" t="s">
-        <v>1148</v>
+        <v>1021</v>
       </c>
       <c r="K105" t="s">
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>762</v>
+        <v>679</v>
       </c>
       <c r="B106" t="s">
-        <v>763</v>
+        <v>680</v>
       </c>
       <c r="C106" t="s">
-        <v>764</v>
+        <v>681</v>
       </c>
       <c r="D106" t="s">
-        <v>765</v>
+        <v>682</v>
       </c>
       <c r="E106" t="s">
         <v>17</v>
@@ -8617,33 +8114,33 @@
         <v>31</v>
       </c>
       <c r="I106" t="s">
-        <v>1309</v>
+        <v>1163</v>
       </c>
       <c r="J106" t="s">
-        <v>818</v>
+        <v>722</v>
       </c>
       <c r="K106" t="s">
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="B107" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="C107" t="s">
-        <v>470</v>
+        <v>420</v>
       </c>
       <c r="D107" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="E107" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F107" t="s">
         <v>40</v>
@@ -8658,27 +8155,27 @@
         <v>47</v>
       </c>
       <c r="J107" t="s">
-        <v>1149</v>
+        <v>1022</v>
       </c>
       <c r="K107" t="s">
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>676</v>
+        <v>597</v>
       </c>
       <c r="B108" t="s">
-        <v>677</v>
+        <v>598</v>
       </c>
       <c r="C108" t="s">
-        <v>678</v>
+        <v>599</v>
       </c>
       <c r="D108" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
       <c r="E108" t="s">
         <v>57</v>
@@ -8693,30 +8190,30 @@
         <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>1310</v>
+        <v>1164</v>
       </c>
       <c r="J108" t="s">
-        <v>1150</v>
+        <v>1023</v>
       </c>
       <c r="K108" t="s">
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C109" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D109" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -8731,30 +8228,30 @@
         <v>39</v>
       </c>
       <c r="I109" t="s">
-        <v>1311</v>
+        <v>1165</v>
       </c>
       <c r="J109" t="s">
-        <v>1151</v>
+        <v>1024</v>
       </c>
       <c r="K109" t="s">
         <v>46</v>
       </c>
       <c r="L109" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="B110" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="C110" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="D110" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="E110" t="s">
         <v>52</v>
@@ -8769,33 +8266,33 @@
         <v>28</v>
       </c>
       <c r="I110" t="s">
-        <v>1312</v>
+        <v>1166</v>
       </c>
       <c r="J110" t="s">
-        <v>1152</v>
+        <v>1025</v>
       </c>
       <c r="K110" t="s">
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C111" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E111" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -8807,30 +8304,30 @@
         <v>5</v>
       </c>
       <c r="I111" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="J111" t="s">
-        <v>1153</v>
+        <v>1026</v>
       </c>
       <c r="K111" t="s">
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="B112" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="C112" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="D112" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="E112" t="s">
         <v>27</v>
@@ -8848,16 +8345,16 @@
         <v>47</v>
       </c>
       <c r="J112" t="s">
-        <v>1154</v>
+        <v>1027</v>
       </c>
       <c r="K112" t="s">
         <v>46</v>
       </c>
       <c r="L112" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>72</v>
       </c>
@@ -8883,33 +8380,33 @@
         <v>16</v>
       </c>
       <c r="I113" t="s">
-        <v>1313</v>
+        <v>1167</v>
       </c>
       <c r="J113" t="s">
-        <v>1155</v>
+        <v>1028</v>
       </c>
       <c r="K113" t="s">
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="B114" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="C114" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D114" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="E114" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="F114" t="s">
         <v>28</v>
@@ -8921,30 +8418,30 @@
         <v>5</v>
       </c>
       <c r="I114" t="s">
-        <v>1314</v>
+        <v>1168</v>
       </c>
       <c r="J114" t="s">
-        <v>832</v>
+        <v>734</v>
       </c>
       <c r="K114" t="s">
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>576</v>
+        <v>506</v>
       </c>
       <c r="B115" t="s">
-        <v>577</v>
+        <v>507</v>
       </c>
       <c r="C115" t="s">
-        <v>578</v>
+        <v>508</v>
       </c>
       <c r="D115" t="s">
-        <v>579</v>
+        <v>509</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -8959,19 +8456,19 @@
         <v>5</v>
       </c>
       <c r="I115" t="s">
-        <v>1315</v>
+        <v>1169</v>
       </c>
       <c r="J115" t="s">
-        <v>1156</v>
+        <v>1029</v>
       </c>
       <c r="K115" t="s">
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>41</v>
       </c>
@@ -9000,27 +8497,27 @@
         <v>47</v>
       </c>
       <c r="J116" t="s">
-        <v>823</v>
+        <v>727</v>
       </c>
       <c r="K116" t="s">
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="B117" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="C117" t="s">
         <v>60</v>
       </c>
       <c r="D117" t="s">
-        <v>401</v>
+        <v>358</v>
       </c>
       <c r="E117" t="s">
         <v>34</v>
@@ -9035,33 +8532,33 @@
         <v>7</v>
       </c>
       <c r="I117" t="s">
-        <v>1316</v>
+        <v>1170</v>
       </c>
       <c r="J117" t="s">
-        <v>1157</v>
+        <v>1030</v>
       </c>
       <c r="K117" t="s">
         <v>46</v>
       </c>
       <c r="L117" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="B118" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C118" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D118" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E118" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F118" t="s">
         <v>63</v>
@@ -9073,33 +8570,33 @@
         <v>3</v>
       </c>
       <c r="I118" t="s">
-        <v>1317</v>
+        <v>1171</v>
       </c>
       <c r="J118" t="s">
-        <v>1158</v>
+        <v>1031</v>
       </c>
       <c r="K118" t="s">
         <v>46</v>
       </c>
       <c r="L118" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="B119" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C119" t="s">
         <v>74</v>
       </c>
       <c r="D119" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="E119" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="F119" t="s">
         <v>63</v>
@@ -9111,33 +8608,33 @@
         <v>3</v>
       </c>
       <c r="I119" t="s">
-        <v>1318</v>
+        <v>1172</v>
       </c>
       <c r="J119" t="s">
-        <v>1159</v>
+        <v>1032</v>
       </c>
       <c r="K119" t="s">
         <v>46</v>
       </c>
       <c r="L119" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="B120" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="C120" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="D120" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="E120" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F120" t="s">
         <v>63</v>
@@ -9149,33 +8646,33 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>1319</v>
+        <v>1173</v>
       </c>
       <c r="J120" t="s">
-        <v>1160</v>
+        <v>1033</v>
       </c>
       <c r="K120" t="s">
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="B121" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="C121" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="D121" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="E121" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="F121" t="s">
         <v>12</v>
@@ -9187,33 +8684,33 @@
         <v>5</v>
       </c>
       <c r="I121" t="s">
-        <v>1320</v>
+        <v>1174</v>
       </c>
       <c r="J121" t="s">
-        <v>1161</v>
+        <v>1034</v>
       </c>
       <c r="K121" t="s">
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="B122" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C122" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D122" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="E122" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="F122" t="s">
         <v>12</v>
@@ -9225,33 +8722,33 @@
         <v>21</v>
       </c>
       <c r="I122" t="s">
-        <v>1321</v>
+        <v>1175</v>
       </c>
       <c r="J122" t="s">
-        <v>828</v>
+        <v>732</v>
       </c>
       <c r="K122" t="s">
         <v>46</v>
       </c>
       <c r="L122" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B123" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="C123" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="D123" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="E123" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="F123" t="s">
         <v>63</v>
@@ -9263,19 +8760,19 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>1322</v>
+        <v>1176</v>
       </c>
       <c r="J123" t="s">
-        <v>1162</v>
+        <v>1035</v>
       </c>
       <c r="K123" t="s">
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1</v>
       </c>
@@ -9301,30 +8798,30 @@
         <v>5</v>
       </c>
       <c r="I124" t="s">
-        <v>1323</v>
+        <v>1177</v>
       </c>
       <c r="J124" t="s">
-        <v>1163</v>
+        <v>1036</v>
       </c>
       <c r="K124" t="s">
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>383</v>
+        <v>340</v>
       </c>
       <c r="B125" t="s">
-        <v>384</v>
+        <v>341</v>
       </c>
       <c r="C125" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="D125" t="s">
-        <v>386</v>
+        <v>343</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
@@ -9342,27 +8839,27 @@
         <v>47</v>
       </c>
       <c r="J125" t="s">
-        <v>1164</v>
+        <v>1037</v>
       </c>
       <c r="K125" t="s">
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>567</v>
+        <v>497</v>
       </c>
       <c r="B126" t="s">
-        <v>568</v>
+        <v>498</v>
       </c>
       <c r="C126" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D126" t="s">
-        <v>569</v>
+        <v>499</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
@@ -9377,30 +8874,30 @@
         <v>9</v>
       </c>
       <c r="I126" t="s">
-        <v>1324</v>
+        <v>1178</v>
       </c>
       <c r="J126" t="s">
-        <v>815</v>
+        <v>720</v>
       </c>
       <c r="K126" t="s">
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="B127" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="C127" t="s">
         <v>74</v>
       </c>
       <c r="D127" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="E127" t="s">
         <v>34</v>
@@ -9415,30 +8912,30 @@
         <v>7</v>
       </c>
       <c r="I127" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="J127" t="s">
-        <v>1165</v>
+        <v>1038</v>
       </c>
       <c r="K127" t="s">
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="C128" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D128" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="E128" t="s">
         <v>34</v>
@@ -9453,30 +8950,30 @@
         <v>3</v>
       </c>
       <c r="I128" t="s">
-        <v>1325</v>
+        <v>1179</v>
       </c>
       <c r="J128" t="s">
-        <v>1166</v>
+        <v>1039</v>
       </c>
       <c r="K128" t="s">
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>759</v>
+        <v>676</v>
       </c>
       <c r="B129" t="s">
-        <v>760</v>
+        <v>677</v>
       </c>
       <c r="C129" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D129" t="s">
-        <v>761</v>
+        <v>678</v>
       </c>
       <c r="E129" t="s">
         <v>17</v>
@@ -9491,30 +8988,30 @@
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>1326</v>
+        <v>1180</v>
       </c>
       <c r="J129" t="s">
-        <v>870</v>
+        <v>770</v>
       </c>
       <c r="K129" t="s">
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>773</v>
+        <v>690</v>
       </c>
       <c r="B130" t="s">
-        <v>774</v>
+        <v>691</v>
       </c>
       <c r="C130" t="s">
-        <v>775</v>
+        <v>692</v>
       </c>
       <c r="D130" t="s">
-        <v>776</v>
+        <v>693</v>
       </c>
       <c r="E130" t="s">
         <v>17</v>
@@ -9529,30 +9026,30 @@
         <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>777</v>
+        <v>694</v>
       </c>
       <c r="J130" t="s">
-        <v>1167</v>
+        <v>1040</v>
       </c>
       <c r="K130" t="s">
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>744</v>
+        <v>661</v>
       </c>
       <c r="B131" t="s">
-        <v>745</v>
+        <v>662</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
       </c>
       <c r="D131" t="s">
-        <v>746</v>
+        <v>663</v>
       </c>
       <c r="E131" t="s">
         <v>17</v>
@@ -9567,30 +9064,30 @@
         <v>6</v>
       </c>
       <c r="I131" t="s">
-        <v>747</v>
+        <v>664</v>
       </c>
       <c r="J131" t="s">
-        <v>869</v>
+        <v>769</v>
       </c>
       <c r="K131" t="s">
         <v>46</v>
       </c>
       <c r="L131" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="B132" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="C132" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="D132" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="E132" t="s">
         <v>52</v>
@@ -9605,33 +9102,33 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>1327</v>
+        <v>1181</v>
       </c>
       <c r="J132" t="s">
-        <v>1168</v>
+        <v>1041</v>
       </c>
       <c r="K132" t="s">
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="B133" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="C133" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D133" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="E133" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="F133" t="s">
         <v>28</v>
@@ -9643,30 +9140,30 @@
         <v>6</v>
       </c>
       <c r="I133" t="s">
-        <v>1328</v>
+        <v>1182</v>
       </c>
       <c r="J133" t="s">
-        <v>1169</v>
+        <v>1042</v>
       </c>
       <c r="K133" t="s">
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="B134" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="C134" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="D134" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="E134" t="s">
         <v>71</v>
@@ -9681,30 +9178,30 @@
         <v>13</v>
       </c>
       <c r="I134" t="s">
-        <v>1329</v>
+        <v>1183</v>
       </c>
       <c r="J134" t="s">
-        <v>836</v>
+        <v>738</v>
       </c>
       <c r="K134" t="s">
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B135" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C135" t="s">
         <v>60</v>
       </c>
       <c r="D135" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
@@ -9719,33 +9216,33 @@
         <v>5</v>
       </c>
       <c r="I135" t="s">
-        <v>1330</v>
+        <v>1184</v>
       </c>
       <c r="J135" t="s">
-        <v>1170</v>
+        <v>1043</v>
       </c>
       <c r="K135" t="s">
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="B136" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="C136" t="s">
         <v>60</v>
       </c>
       <c r="D136" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="E136" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="F136" t="s">
         <v>12</v>
@@ -9757,30 +9254,30 @@
         <v>22</v>
       </c>
       <c r="I136" t="s">
-        <v>1331</v>
+        <v>1185</v>
       </c>
       <c r="J136" t="s">
-        <v>1171</v>
+        <v>1044</v>
       </c>
       <c r="K136" t="s">
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>346</v>
+        <v>303</v>
       </c>
       <c r="B137" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="C137" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="D137" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="E137" t="s">
         <v>27</v>
@@ -9795,30 +9292,30 @@
         <v>5</v>
       </c>
       <c r="I137" t="s">
-        <v>1332</v>
+        <v>1186</v>
       </c>
       <c r="J137" t="s">
-        <v>1172</v>
+        <v>1045</v>
       </c>
       <c r="K137" t="s">
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>736</v>
+        <v>653</v>
       </c>
       <c r="B138" t="s">
-        <v>737</v>
+        <v>654</v>
       </c>
       <c r="C138" t="s">
-        <v>738</v>
+        <v>655</v>
       </c>
       <c r="D138" t="s">
-        <v>739</v>
+        <v>656</v>
       </c>
       <c r="E138" t="s">
         <v>17</v>
@@ -9833,30 +9330,30 @@
         <v>7</v>
       </c>
       <c r="I138" t="s">
-        <v>1333</v>
+        <v>1187</v>
       </c>
       <c r="J138" t="s">
-        <v>867</v>
+        <v>767</v>
       </c>
       <c r="K138" t="s">
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>587</v>
+        <v>517</v>
       </c>
       <c r="B139" t="s">
-        <v>588</v>
+        <v>518</v>
       </c>
       <c r="C139" t="s">
-        <v>589</v>
+        <v>519</v>
       </c>
       <c r="D139" t="s">
-        <v>590</v>
+        <v>520</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -9871,30 +9368,30 @@
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>1334</v>
+        <v>1188</v>
       </c>
       <c r="J139" t="s">
-        <v>1173</v>
+        <v>1046</v>
       </c>
       <c r="K139" t="s">
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>652</v>
+        <v>577</v>
       </c>
       <c r="B140" t="s">
-        <v>653</v>
+        <v>578</v>
       </c>
       <c r="C140" t="s">
-        <v>654</v>
+        <v>579</v>
       </c>
       <c r="D140" t="s">
-        <v>655</v>
+        <v>580</v>
       </c>
       <c r="E140" t="s">
         <v>52</v>
@@ -9909,33 +9406,33 @@
         <v>10</v>
       </c>
       <c r="I140" t="s">
-        <v>1335</v>
+        <v>1189</v>
       </c>
       <c r="J140" t="s">
-        <v>857</v>
+        <v>757</v>
       </c>
       <c r="K140" t="s">
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="B141" t="s">
-        <v>545</v>
+        <v>478</v>
       </c>
       <c r="C141" t="s">
-        <v>546</v>
+        <v>479</v>
       </c>
       <c r="D141" t="s">
-        <v>547</v>
+        <v>480</v>
       </c>
       <c r="E141" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="F141" t="s">
         <v>12</v>
@@ -9947,30 +9444,30 @@
         <v>5</v>
       </c>
       <c r="I141" t="s">
-        <v>1336</v>
+        <v>1190</v>
       </c>
       <c r="J141" t="s">
-        <v>847</v>
+        <v>748</v>
       </c>
       <c r="K141" t="s">
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>552</v>
+        <v>485</v>
       </c>
       <c r="B142" t="s">
-        <v>553</v>
+        <v>486</v>
       </c>
       <c r="C142" t="s">
-        <v>554</v>
+        <v>487</v>
       </c>
       <c r="D142" t="s">
-        <v>555</v>
+        <v>488</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
@@ -9985,33 +9482,33 @@
         <v>5</v>
       </c>
       <c r="I142" t="s">
-        <v>556</v>
+        <v>489</v>
       </c>
       <c r="J142" t="s">
-        <v>848</v>
+        <v>749</v>
       </c>
       <c r="K142" t="s">
         <v>46</v>
       </c>
       <c r="L142" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="B143" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="C143" t="s">
-        <v>378</v>
+        <v>335</v>
       </c>
       <c r="D143" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="E143" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F143" t="s">
         <v>28</v>
@@ -10026,27 +9523,27 @@
         <v>47</v>
       </c>
       <c r="J143" t="s">
-        <v>1174</v>
+        <v>1047</v>
       </c>
       <c r="K143" t="s">
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B144" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C144" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D144" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E144" t="s">
         <v>11</v>
@@ -10061,33 +9558,33 @@
         <v>4</v>
       </c>
       <c r="I144" t="s">
-        <v>1337</v>
+        <v>1191</v>
       </c>
       <c r="J144" t="s">
-        <v>826</v>
+        <v>730</v>
       </c>
       <c r="K144" t="s">
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="B145" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C145" t="s">
         <v>60</v>
       </c>
       <c r="D145" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="E145" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="F145" t="s">
         <v>12</v>
@@ -10099,30 +9596,30 @@
         <v>10</v>
       </c>
       <c r="I145" t="s">
-        <v>1338</v>
+        <v>1192</v>
       </c>
       <c r="J145" t="s">
-        <v>1175</v>
+        <v>1048</v>
       </c>
       <c r="K145" t="s">
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="B146" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="C146" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D146" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="E146" t="s">
         <v>17</v>
@@ -10140,27 +9637,27 @@
         <v>47</v>
       </c>
       <c r="J146" t="s">
-        <v>1176</v>
+        <v>1049</v>
       </c>
       <c r="K146" t="s">
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B147" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="C147" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="D147" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E147" t="s">
         <v>17</v>
@@ -10175,30 +9672,30 @@
         <v>6</v>
       </c>
       <c r="I147" t="s">
-        <v>1339</v>
+        <v>1193</v>
       </c>
       <c r="J147" t="s">
-        <v>1177</v>
+        <v>1050</v>
       </c>
       <c r="K147" t="s">
         <v>46</v>
       </c>
       <c r="L147" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B148" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C148" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D148" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="E148" t="s">
         <v>45</v>
@@ -10213,19 +9710,19 @@
         <v>5</v>
       </c>
       <c r="I148" t="s">
-        <v>1340</v>
+        <v>1194</v>
       </c>
       <c r="J148" t="s">
-        <v>1178</v>
+        <v>1051</v>
       </c>
       <c r="K148" t="s">
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>41</v>
       </c>
@@ -10251,19 +9748,19 @@
         <v>14</v>
       </c>
       <c r="I149" t="s">
-        <v>1341</v>
+        <v>1195</v>
       </c>
       <c r="J149" t="s">
-        <v>824</v>
+        <v>728</v>
       </c>
       <c r="K149" t="s">
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -10289,30 +9786,30 @@
         <v>13</v>
       </c>
       <c r="I150" t="s">
-        <v>1342</v>
+        <v>1196</v>
       </c>
       <c r="J150" t="s">
-        <v>1179</v>
+        <v>1052</v>
       </c>
       <c r="K150" t="s">
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="B151" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="C151" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="D151" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="E151" t="s">
         <v>71</v>
@@ -10327,33 +9824,33 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>1343</v>
+        <v>1197</v>
       </c>
       <c r="J151" t="s">
-        <v>1180</v>
+        <v>1053</v>
       </c>
       <c r="K151" t="s">
         <v>46</v>
       </c>
       <c r="L151" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D152" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="E152" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F152" t="s">
         <v>28</v>
@@ -10365,33 +9862,33 @@
         <v>11</v>
       </c>
       <c r="I152" t="s">
-        <v>1344</v>
+        <v>1198</v>
       </c>
       <c r="J152" t="s">
-        <v>1181</v>
+        <v>1054</v>
       </c>
       <c r="K152" t="s">
         <v>46</v>
       </c>
       <c r="L152" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="B153" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="C153" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="D153" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="E153" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F153" t="s">
         <v>28</v>
@@ -10403,30 +9900,30 @@
         <v>5</v>
       </c>
       <c r="I153" t="s">
-        <v>1345</v>
+        <v>1199</v>
       </c>
       <c r="J153" t="s">
-        <v>1182</v>
+        <v>1055</v>
       </c>
       <c r="K153" t="s">
         <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="B154" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C154" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D154" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
@@ -10441,33 +9938,33 @@
         <v>4</v>
       </c>
       <c r="I154" t="s">
-        <v>1346</v>
+        <v>1200</v>
       </c>
       <c r="J154" t="s">
-        <v>827</v>
+        <v>731</v>
       </c>
       <c r="K154" t="s">
         <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B155" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C155" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="D155" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="E155" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="F155" t="s">
         <v>63</v>
@@ -10479,30 +9976,30 @@
         <v>7</v>
       </c>
       <c r="I155" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="J155" t="s">
-        <v>830</v>
+        <v>733</v>
       </c>
       <c r="K155" t="s">
         <v>46</v>
       </c>
       <c r="L155" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>502</v>
+        <v>445</v>
       </c>
       <c r="B156" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="C156" t="s">
         <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
       <c r="E156" t="s">
         <v>34</v>
@@ -10520,27 +10017,27 @@
         <v>47</v>
       </c>
       <c r="J156" t="s">
-        <v>1183</v>
+        <v>1056</v>
       </c>
       <c r="K156" t="s">
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B157" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C157" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="D157" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="E157" t="s">
         <v>52</v>
@@ -10555,33 +10052,33 @@
         <v>7</v>
       </c>
       <c r="I157" t="s">
-        <v>1347</v>
+        <v>1201</v>
       </c>
       <c r="J157" t="s">
-        <v>1184</v>
+        <v>1057</v>
       </c>
       <c r="K157" t="s">
         <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="B158" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="C158" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="D158" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="E158" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F158" t="s">
         <v>28</v>
@@ -10593,30 +10090,30 @@
         <v>10</v>
       </c>
       <c r="I158" t="s">
-        <v>1348</v>
+        <v>1202</v>
       </c>
       <c r="J158" t="s">
-        <v>814</v>
+        <v>719</v>
       </c>
       <c r="K158" t="s">
         <v>46</v>
       </c>
       <c r="L158" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>548</v>
+        <v>481</v>
       </c>
       <c r="B159" t="s">
-        <v>549</v>
+        <v>482</v>
       </c>
       <c r="C159" t="s">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="D159" t="s">
-        <v>551</v>
+        <v>484</v>
       </c>
       <c r="E159" t="s">
         <v>71</v>
@@ -10631,33 +10128,33 @@
         <v>10</v>
       </c>
       <c r="I159" t="s">
-        <v>1349</v>
+        <v>1203</v>
       </c>
       <c r="J159" t="s">
-        <v>1185</v>
+        <v>1058</v>
       </c>
       <c r="K159" t="s">
         <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="B160" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="C160" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="D160" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="E160" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F160" t="s">
         <v>28</v>
@@ -10669,30 +10166,30 @@
         <v>14</v>
       </c>
       <c r="I160" t="s">
-        <v>1350</v>
+        <v>1204</v>
       </c>
       <c r="J160" t="s">
-        <v>1186</v>
+        <v>1059</v>
       </c>
       <c r="K160" t="s">
         <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="B161" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="C161" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="D161" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
@@ -10707,33 +10204,33 @@
         <v>25</v>
       </c>
       <c r="I161" t="s">
-        <v>1351</v>
+        <v>1205</v>
       </c>
       <c r="J161" t="s">
-        <v>1187</v>
+        <v>1060</v>
       </c>
       <c r="K161" t="s">
         <v>46</v>
       </c>
       <c r="L161" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="B162" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="C162" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="D162" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="E162" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F162" t="s">
         <v>28</v>
@@ -10745,19 +10242,19 @@
         <v>5</v>
       </c>
       <c r="I162" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="J162" t="s">
-        <v>813</v>
+        <v>718</v>
       </c>
       <c r="K162" t="s">
         <v>0</v>
       </c>
       <c r="L162" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -10783,33 +10280,33 @@
         <v>6</v>
       </c>
       <c r="I163" t="s">
-        <v>1352</v>
+        <v>1206</v>
       </c>
       <c r="J163" t="s">
-        <v>821</v>
+        <v>725</v>
       </c>
       <c r="K163" t="s">
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="B164" t="s">
-        <v>473</v>
+        <v>423</v>
       </c>
       <c r="C164" t="s">
         <v>60</v>
       </c>
       <c r="D164" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
       <c r="E164" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F164" t="s">
         <v>40</v>
@@ -10821,33 +10318,33 @@
         <v>9</v>
       </c>
       <c r="I164" t="s">
-        <v>1353</v>
+        <v>1207</v>
       </c>
       <c r="J164" t="s">
-        <v>841</v>
+        <v>743</v>
       </c>
       <c r="K164" t="s">
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>659</v>
+        <v>584</v>
       </c>
       <c r="B165" t="s">
-        <v>660</v>
+        <v>585</v>
       </c>
       <c r="C165" t="s">
-        <v>661</v>
+        <v>586</v>
       </c>
       <c r="D165" t="s">
-        <v>662</v>
+        <v>587</v>
       </c>
       <c r="E165" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F165" t="s">
         <v>28</v>
@@ -10859,30 +10356,30 @@
         <v>8</v>
       </c>
       <c r="I165" t="s">
-        <v>1354</v>
+        <v>1208</v>
       </c>
       <c r="J165" t="s">
-        <v>858</v>
+        <v>758</v>
       </c>
       <c r="K165" t="s">
         <v>46</v>
       </c>
       <c r="L165" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>716</v>
+        <v>633</v>
       </c>
       <c r="B166" t="s">
-        <v>717</v>
+        <v>634</v>
       </c>
       <c r="C166" t="s">
-        <v>718</v>
+        <v>635</v>
       </c>
       <c r="D166" t="s">
-        <v>719</v>
+        <v>636</v>
       </c>
       <c r="E166" t="s">
         <v>27</v>
@@ -10897,30 +10394,30 @@
         <v>6</v>
       </c>
       <c r="I166" t="s">
-        <v>1355</v>
+        <v>1209</v>
       </c>
       <c r="J166" t="s">
-        <v>863</v>
+        <v>763</v>
       </c>
       <c r="K166" t="s">
         <v>46</v>
       </c>
       <c r="L166" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>617</v>
+        <v>542</v>
       </c>
       <c r="B167" t="s">
-        <v>618</v>
+        <v>543</v>
       </c>
       <c r="C167" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D167" t="s">
-        <v>619</v>
+        <v>544</v>
       </c>
       <c r="E167" t="s">
         <v>17</v>
@@ -10935,30 +10432,30 @@
         <v>14</v>
       </c>
       <c r="I167" t="s">
-        <v>1356</v>
+        <v>1210</v>
       </c>
       <c r="J167" t="s">
-        <v>1188</v>
+        <v>1061</v>
       </c>
       <c r="K167" t="s">
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>694</v>
+        <v>615</v>
       </c>
       <c r="B168" t="s">
-        <v>695</v>
+        <v>616</v>
       </c>
       <c r="C168" t="s">
-        <v>696</v>
+        <v>617</v>
       </c>
       <c r="D168" t="s">
-        <v>697</v>
+        <v>618</v>
       </c>
       <c r="E168" t="s">
         <v>52</v>
@@ -10973,33 +10470,33 @@
         <v>7</v>
       </c>
       <c r="I168" t="s">
-        <v>1357</v>
+        <v>1211</v>
       </c>
       <c r="J168" t="s">
-        <v>860</v>
+        <v>760</v>
       </c>
       <c r="K168" t="s">
         <v>46</v>
       </c>
       <c r="L168" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>720</v>
+        <v>637</v>
       </c>
       <c r="B169" t="s">
-        <v>721</v>
+        <v>638</v>
       </c>
       <c r="C169" t="s">
-        <v>722</v>
+        <v>639</v>
       </c>
       <c r="D169" t="s">
-        <v>723</v>
+        <v>640</v>
       </c>
       <c r="E169" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="F169" t="s">
         <v>28</v>
@@ -11011,33 +10508,33 @@
         <v>5</v>
       </c>
       <c r="I169" t="s">
-        <v>1358</v>
+        <v>1212</v>
       </c>
       <c r="J169" t="s">
-        <v>864</v>
+        <v>764</v>
       </c>
       <c r="K169" t="s">
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="C170" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D170" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="E170" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="F170" t="s">
         <v>63</v>
@@ -11049,30 +10546,30 @@
         <v>6</v>
       </c>
       <c r="I170" t="s">
-        <v>1359</v>
+        <v>1213</v>
       </c>
       <c r="J170" t="s">
-        <v>1189</v>
+        <v>1062</v>
       </c>
       <c r="K170" t="s">
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
       <c r="B171" t="s">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="C171" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="D171" t="s">
-        <v>390</v>
+        <v>347</v>
       </c>
       <c r="E171" t="s">
         <v>11</v>
@@ -11090,27 +10587,27 @@
         <v>47</v>
       </c>
       <c r="J171" t="s">
-        <v>835</v>
+        <v>737</v>
       </c>
       <c r="K171" t="s">
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>786</v>
+        <v>698</v>
       </c>
       <c r="B172" t="s">
-        <v>787</v>
+        <v>699</v>
       </c>
       <c r="C172" t="s">
-        <v>788</v>
+        <v>700</v>
       </c>
       <c r="D172" t="s">
-        <v>789</v>
+        <v>701</v>
       </c>
       <c r="E172" t="s">
         <v>76</v>
@@ -11125,33 +10622,33 @@
         <v>5</v>
       </c>
       <c r="I172" t="s">
-        <v>1360</v>
+        <v>1214</v>
       </c>
       <c r="J172" t="s">
-        <v>1190</v>
+        <v>1063</v>
       </c>
       <c r="K172" t="s">
         <v>46</v>
       </c>
       <c r="L172" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>673</v>
+        <v>594</v>
       </c>
       <c r="B173" t="s">
-        <v>674</v>
+        <v>595</v>
       </c>
       <c r="C173" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D173" t="s">
-        <v>675</v>
+        <v>596</v>
       </c>
       <c r="E173" t="s">
-        <v>633</v>
+        <v>558</v>
       </c>
       <c r="F173" t="s">
         <v>53</v>
@@ -11163,30 +10660,30 @@
         <v>4</v>
       </c>
       <c r="I173" t="s">
-        <v>1361</v>
+        <v>1215</v>
       </c>
       <c r="J173" t="s">
-        <v>1191</v>
+        <v>1064</v>
       </c>
       <c r="K173" t="s">
         <v>46</v>
       </c>
       <c r="L173" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="B174" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
       <c r="C174" t="s">
         <v>60</v>
       </c>
       <c r="D174" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
       <c r="E174" t="s">
         <v>71</v>
@@ -11201,30 +10698,30 @@
         <v>4</v>
       </c>
       <c r="I174" t="s">
-        <v>1362</v>
+        <v>1216</v>
       </c>
       <c r="J174" t="s">
-        <v>1192</v>
+        <v>1065</v>
       </c>
       <c r="K174" t="s">
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="B175" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="C175" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="D175" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="E175" t="s">
         <v>11</v>
@@ -11239,30 +10736,30 @@
         <v>2</v>
       </c>
       <c r="I175" t="s">
-        <v>1363</v>
+        <v>1217</v>
       </c>
       <c r="J175" t="s">
-        <v>1193</v>
+        <v>1066</v>
       </c>
       <c r="K175" t="s">
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B176" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="C176" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D176" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -11277,33 +10774,33 @@
         <v>5</v>
       </c>
       <c r="I176" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="J176" t="s">
-        <v>812</v>
+        <v>717</v>
       </c>
       <c r="K176" t="s">
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="B177" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="C177" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="D177" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="E177" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="F177" t="s">
         <v>40</v>
@@ -11315,19 +10812,19 @@
         <v>7</v>
       </c>
       <c r="I177" t="s">
-        <v>1364</v>
+        <v>1218</v>
       </c>
       <c r="J177" t="s">
-        <v>1194</v>
+        <v>1067</v>
       </c>
       <c r="K177" t="s">
         <v>46</v>
       </c>
       <c r="L177" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>23</v>
       </c>
@@ -11356,27 +10853,27 @@
         <v>29</v>
       </c>
       <c r="J178" t="s">
-        <v>1195</v>
+        <v>1068</v>
       </c>
       <c r="K178" t="s">
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>607</v>
+        <v>534</v>
       </c>
       <c r="B179" t="s">
-        <v>608</v>
+        <v>535</v>
       </c>
       <c r="C179" t="s">
-        <v>609</v>
+        <v>536</v>
       </c>
       <c r="D179" t="s">
-        <v>610</v>
+        <v>537</v>
       </c>
       <c r="E179" t="s">
         <v>11</v>
@@ -11391,33 +10888,33 @@
         <v>5</v>
       </c>
       <c r="I179" t="s">
-        <v>1365</v>
+        <v>1219</v>
       </c>
       <c r="J179" t="s">
-        <v>854</v>
+        <v>754</v>
       </c>
       <c r="K179" t="s">
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="B180" t="s">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="C180" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="D180" t="s">
-        <v>413</v>
+        <v>370</v>
       </c>
       <c r="E180" t="s">
-        <v>414</v>
+        <v>371</v>
       </c>
       <c r="F180" t="s">
         <v>6</v>
@@ -11429,1004 +10926,16 @@
         <v>6</v>
       </c>
       <c r="I180" t="s">
-        <v>1366</v>
+        <v>1220</v>
       </c>
       <c r="J180" t="s">
-        <v>1196</v>
+        <v>1069</v>
       </c>
       <c r="K180" t="s">
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>294</v>
-      </c>
-      <c r="B181" t="s">
-        <v>295</v>
-      </c>
-      <c r="C181" t="s">
-        <v>235</v>
-      </c>
-      <c r="D181" t="s">
-        <v>296</v>
-      </c>
-      <c r="E181" t="s">
-        <v>27</v>
-      </c>
-      <c r="F181" t="s">
-        <v>28</v>
-      </c>
-      <c r="G181">
-        <v>310000</v>
-      </c>
-      <c r="H181">
-        <v>11</v>
-      </c>
-      <c r="I181" t="s">
-        <v>1367</v>
-      </c>
-      <c r="J181" t="s">
-        <v>831</v>
-      </c>
-      <c r="K181" t="s">
-        <v>46</v>
-      </c>
-      <c r="L181" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>529</v>
-      </c>
-      <c r="B182" t="s">
-        <v>530</v>
-      </c>
-      <c r="C182" t="s">
-        <v>531</v>
-      </c>
-      <c r="D182" t="s">
-        <v>481</v>
-      </c>
-      <c r="E182" t="s">
-        <v>192</v>
-      </c>
-      <c r="F182" t="s">
-        <v>12</v>
-      </c>
-      <c r="G182">
-        <v>57000</v>
-      </c>
-      <c r="H182">
-        <v>8</v>
-      </c>
-      <c r="I182" t="s">
-        <v>1368</v>
-      </c>
-      <c r="J182" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K182" t="s">
-        <v>0</v>
-      </c>
-      <c r="L182" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>591</v>
-      </c>
-      <c r="B183" t="s">
-        <v>592</v>
-      </c>
-      <c r="C183" t="s">
-        <v>74</v>
-      </c>
-      <c r="D183" t="s">
-        <v>593</v>
-      </c>
-      <c r="E183" t="s">
-        <v>52</v>
-      </c>
-      <c r="F183" t="s">
-        <v>53</v>
-      </c>
-      <c r="G183">
-        <v>55000</v>
-      </c>
-      <c r="H183">
-        <v>6</v>
-      </c>
-      <c r="I183" t="s">
-        <v>1369</v>
-      </c>
-      <c r="J183" t="s">
-        <v>816</v>
-      </c>
-      <c r="K183" t="s">
-        <v>0</v>
-      </c>
-      <c r="L183" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>77</v>
-      </c>
-      <c r="B184" t="s">
-        <v>78</v>
-      </c>
-      <c r="C184" t="s">
-        <v>79</v>
-      </c>
-      <c r="D184" t="s">
-        <v>80</v>
-      </c>
-      <c r="E184" t="s">
-        <v>81</v>
-      </c>
-      <c r="F184" t="s">
-        <v>28</v>
-      </c>
-      <c r="G184">
-        <v>759000</v>
-      </c>
-      <c r="H184">
-        <v>10</v>
-      </c>
-      <c r="I184" t="s">
-        <v>1370</v>
-      </c>
-      <c r="J184" t="s">
-        <v>1198</v>
-      </c>
-      <c r="K184" t="s">
-        <v>0</v>
-      </c>
-      <c r="L184" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>415</v>
-      </c>
-      <c r="B185" t="s">
-        <v>416</v>
-      </c>
-      <c r="C185" t="s">
-        <v>60</v>
-      </c>
-      <c r="D185" t="s">
-        <v>417</v>
-      </c>
-      <c r="E185" t="s">
-        <v>282</v>
-      </c>
-      <c r="F185" t="s">
-        <v>40</v>
-      </c>
-      <c r="G185">
-        <v>45000</v>
-      </c>
-      <c r="H185">
-        <v>7</v>
-      </c>
-      <c r="I185" t="s">
-        <v>1371</v>
-      </c>
-      <c r="J185" t="s">
-        <v>1199</v>
-      </c>
-      <c r="K185" t="s">
-        <v>46</v>
-      </c>
-      <c r="L185" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>540</v>
-      </c>
-      <c r="B186" t="s">
-        <v>541</v>
-      </c>
-      <c r="C186" t="s">
-        <v>542</v>
-      </c>
-      <c r="D186" t="s">
-        <v>543</v>
-      </c>
-      <c r="E186" t="s">
-        <v>164</v>
-      </c>
-      <c r="F186" t="s">
-        <v>63</v>
-      </c>
-      <c r="G186">
-        <v>55000</v>
-      </c>
-      <c r="H186">
-        <v>8</v>
-      </c>
-      <c r="I186" t="s">
-        <v>1372</v>
-      </c>
-      <c r="J186" t="s">
-        <v>1200</v>
-      </c>
-      <c r="K186" t="s">
-        <v>46</v>
-      </c>
-      <c r="L186" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>233</v>
-      </c>
-      <c r="B187" t="s">
-        <v>234</v>
-      </c>
-      <c r="C187" t="s">
-        <v>235</v>
-      </c>
-      <c r="D187" t="s">
-        <v>236</v>
-      </c>
-      <c r="E187" t="s">
-        <v>52</v>
-      </c>
-      <c r="F187" t="s">
-        <v>53</v>
-      </c>
-      <c r="G187">
-        <v>90000</v>
-      </c>
-      <c r="H187">
-        <v>6</v>
-      </c>
-      <c r="I187" t="s">
-        <v>47</v>
-      </c>
-      <c r="J187" t="s">
-        <v>1201</v>
-      </c>
-      <c r="K187" t="s">
-        <v>0</v>
-      </c>
-      <c r="L187" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>712</v>
-      </c>
-      <c r="B188" t="s">
-        <v>713</v>
-      </c>
-      <c r="C188" t="s">
-        <v>714</v>
-      </c>
-      <c r="D188" t="s">
-        <v>715</v>
-      </c>
-      <c r="E188" t="s">
-        <v>52</v>
-      </c>
-      <c r="F188" t="s">
-        <v>53</v>
-      </c>
-      <c r="G188">
-        <v>45000</v>
-      </c>
-      <c r="H188">
-        <v>5</v>
-      </c>
-      <c r="I188" t="s">
-        <v>1373</v>
-      </c>
-      <c r="J188" t="s">
-        <v>1202</v>
-      </c>
-      <c r="K188" t="s">
-        <v>46</v>
-      </c>
-      <c r="L188" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>557</v>
-      </c>
-      <c r="B189" t="s">
-        <v>558</v>
-      </c>
-      <c r="C189" t="s">
-        <v>146</v>
-      </c>
-      <c r="D189" t="s">
-        <v>559</v>
-      </c>
-      <c r="E189" t="s">
-        <v>187</v>
-      </c>
-      <c r="F189" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189">
-        <v>50000</v>
-      </c>
-      <c r="H189">
-        <v>6</v>
-      </c>
-      <c r="I189" t="s">
-        <v>1374</v>
-      </c>
-      <c r="J189" t="s">
-        <v>849</v>
-      </c>
-      <c r="K189" t="s">
-        <v>0</v>
-      </c>
-      <c r="L189" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>335</v>
-      </c>
-      <c r="B190" t="s">
-        <v>339</v>
-      </c>
-      <c r="C190" t="s">
-        <v>611</v>
-      </c>
-      <c r="D190" t="s">
-        <v>612</v>
-      </c>
-      <c r="E190" t="s">
-        <v>71</v>
-      </c>
-      <c r="F190" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190">
-        <v>55000</v>
-      </c>
-      <c r="H190">
-        <v>4</v>
-      </c>
-      <c r="I190" t="s">
-        <v>1375</v>
-      </c>
-      <c r="J190" t="s">
-        <v>1203</v>
-      </c>
-      <c r="K190" t="s">
-        <v>0</v>
-      </c>
-      <c r="L190" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>268</v>
-      </c>
-      <c r="B191" t="s">
-        <v>269</v>
-      </c>
-      <c r="C191" t="s">
-        <v>141</v>
-      </c>
-      <c r="D191" t="s">
-        <v>270</v>
-      </c>
-      <c r="E191" t="s">
-        <v>271</v>
-      </c>
-      <c r="F191" t="s">
-        <v>63</v>
-      </c>
-      <c r="G191">
-        <v>230000</v>
-      </c>
-      <c r="H191">
-        <v>4</v>
-      </c>
-      <c r="I191" t="s">
-        <v>1376</v>
-      </c>
-      <c r="J191" t="s">
-        <v>1204</v>
-      </c>
-      <c r="K191" t="s">
-        <v>46</v>
-      </c>
-      <c r="L191" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
-        <v>135</v>
-      </c>
-      <c r="B192" t="s">
-        <v>136</v>
-      </c>
-      <c r="C192" t="s">
-        <v>137</v>
-      </c>
-      <c r="D192" t="s">
-        <v>138</v>
-      </c>
-      <c r="E192" t="s">
-        <v>81</v>
-      </c>
-      <c r="F192" t="s">
-        <v>28</v>
-      </c>
-      <c r="G192">
-        <v>480000</v>
-      </c>
-      <c r="H192">
-        <v>6</v>
-      </c>
-      <c r="I192" t="s">
-        <v>1377</v>
-      </c>
-      <c r="J192" t="s">
-        <v>1205</v>
-      </c>
-      <c r="K192" t="s">
-        <v>0</v>
-      </c>
-      <c r="L192" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>778</v>
-      </c>
-      <c r="B193" t="s">
-        <v>779</v>
-      </c>
-      <c r="C193" t="s">
-        <v>780</v>
-      </c>
-      <c r="D193" t="s">
-        <v>781</v>
-      </c>
-      <c r="E193" t="s">
-        <v>17</v>
-      </c>
-      <c r="F193" t="s">
-        <v>63</v>
-      </c>
-      <c r="G193">
-        <v>120000</v>
-      </c>
-      <c r="H193">
-        <v>4</v>
-      </c>
-      <c r="I193" t="s">
-        <v>782</v>
-      </c>
-      <c r="J193" t="s">
-        <v>871</v>
-      </c>
-      <c r="K193" t="s">
-        <v>46</v>
-      </c>
-      <c r="L193" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>305</v>
-      </c>
-      <c r="B194" t="s">
-        <v>306</v>
-      </c>
-      <c r="C194" t="s">
-        <v>307</v>
-      </c>
-      <c r="D194" t="s">
-        <v>308</v>
-      </c>
-      <c r="E194" t="s">
-        <v>11</v>
-      </c>
-      <c r="F194" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194">
-        <v>475000</v>
-      </c>
-      <c r="H194">
-        <v>17</v>
-      </c>
-      <c r="I194" t="s">
-        <v>1378</v>
-      </c>
-      <c r="J194" t="s">
-        <v>1206</v>
-      </c>
-      <c r="K194" t="s">
-        <v>0</v>
-      </c>
-      <c r="L194" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>482</v>
-      </c>
-      <c r="B195" t="s">
-        <v>483</v>
-      </c>
-      <c r="C195" t="s">
-        <v>484</v>
-      </c>
-      <c r="D195" t="s">
-        <v>485</v>
-      </c>
-      <c r="E195" t="s">
-        <v>5</v>
-      </c>
-      <c r="F195" t="s">
-        <v>6</v>
-      </c>
-      <c r="G195">
-        <v>50000</v>
-      </c>
-      <c r="H195">
-        <v>4</v>
-      </c>
-      <c r="I195" t="s">
-        <v>1379</v>
-      </c>
-      <c r="J195" t="s">
-        <v>1207</v>
-      </c>
-      <c r="K195" t="s">
-        <v>0</v>
-      </c>
-      <c r="L195" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>790</v>
-      </c>
-      <c r="B196" t="s">
-        <v>791</v>
-      </c>
-      <c r="C196" t="s">
-        <v>523</v>
-      </c>
-      <c r="D196" t="s">
-        <v>792</v>
-      </c>
-      <c r="E196" t="s">
-        <v>11</v>
-      </c>
-      <c r="F196" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196">
-        <v>150000</v>
-      </c>
-      <c r="H196">
-        <v>7</v>
-      </c>
-      <c r="I196" t="s">
-        <v>1380</v>
-      </c>
-      <c r="J196" t="s">
-        <v>1208</v>
-      </c>
-      <c r="K196" t="s">
-        <v>46</v>
-      </c>
-      <c r="L196" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>666</v>
-      </c>
-      <c r="B197" t="s">
-        <v>667</v>
-      </c>
-      <c r="C197" t="s">
-        <v>668</v>
-      </c>
-      <c r="D197" t="s">
-        <v>669</v>
-      </c>
-      <c r="E197" t="s">
-        <v>27</v>
-      </c>
-      <c r="F197" t="s">
-        <v>28</v>
-      </c>
-      <c r="G197">
-        <v>59921</v>
-      </c>
-      <c r="H197">
-        <v>7</v>
-      </c>
-      <c r="I197" t="s">
-        <v>47</v>
-      </c>
-      <c r="J197" t="s">
-        <v>1209</v>
-      </c>
-      <c r="K197" t="s">
-        <v>0</v>
-      </c>
-      <c r="L197" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>429</v>
-      </c>
-      <c r="B198" t="s">
-        <v>430</v>
-      </c>
-      <c r="C198" t="s">
-        <v>431</v>
-      </c>
-      <c r="D198" t="s">
-        <v>432</v>
-      </c>
-      <c r="E198" t="s">
-        <v>414</v>
-      </c>
-      <c r="F198" t="s">
-        <v>6</v>
-      </c>
-      <c r="G198">
-        <v>45000</v>
-      </c>
-      <c r="H198">
-        <v>5</v>
-      </c>
-      <c r="I198" t="s">
-        <v>1381</v>
-      </c>
-      <c r="J198" t="s">
-        <v>1210</v>
-      </c>
-      <c r="K198" t="s">
-        <v>46</v>
-      </c>
-      <c r="L198" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>96</v>
-      </c>
-      <c r="B199" t="s">
-        <v>97</v>
-      </c>
-      <c r="C199" t="s">
-        <v>98</v>
-      </c>
-      <c r="D199" t="s">
-        <v>99</v>
-      </c>
-      <c r="E199" t="s">
-        <v>17</v>
-      </c>
-      <c r="F199" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199">
-        <v>330000</v>
-      </c>
-      <c r="H199">
-        <v>5</v>
-      </c>
-      <c r="I199" t="s">
-        <v>1382</v>
-      </c>
-      <c r="J199" t="s">
-        <v>1211</v>
-      </c>
-      <c r="K199" t="s">
-        <v>0</v>
-      </c>
-      <c r="L199" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>489</v>
-      </c>
-      <c r="B200" t="s">
-        <v>490</v>
-      </c>
-      <c r="C200" t="s">
-        <v>491</v>
-      </c>
-      <c r="D200" t="s">
-        <v>492</v>
-      </c>
-      <c r="E200" t="s">
-        <v>414</v>
-      </c>
-      <c r="F200" t="s">
-        <v>6</v>
-      </c>
-      <c r="G200">
-        <v>45000</v>
-      </c>
-      <c r="H200">
-        <v>5</v>
-      </c>
-      <c r="I200" t="s">
-        <v>1383</v>
-      </c>
-      <c r="J200" t="s">
-        <v>842</v>
-      </c>
-      <c r="K200" t="s">
-        <v>0</v>
-      </c>
-      <c r="L200" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>100</v>
-      </c>
-      <c r="B201" t="s">
-        <v>101</v>
-      </c>
-      <c r="C201" t="s">
-        <v>102</v>
-      </c>
-      <c r="D201" t="s">
-        <v>103</v>
-      </c>
-      <c r="E201" t="s">
-        <v>45</v>
-      </c>
-      <c r="F201" t="s">
-        <v>6</v>
-      </c>
-      <c r="G201">
-        <v>700000</v>
-      </c>
-      <c r="H201">
-        <v>5</v>
-      </c>
-      <c r="I201" t="s">
-        <v>1384</v>
-      </c>
-      <c r="J201" t="s">
-        <v>1212</v>
-      </c>
-      <c r="K201" t="s">
-        <v>46</v>
-      </c>
-      <c r="L201" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>113</v>
-      </c>
-      <c r="B202" t="s">
-        <v>114</v>
-      </c>
-      <c r="C202" t="s">
-        <v>115</v>
-      </c>
-      <c r="D202" t="s">
-        <v>116</v>
-      </c>
-      <c r="E202" t="s">
-        <v>11</v>
-      </c>
-      <c r="F202" t="s">
-        <v>12</v>
-      </c>
-      <c r="G202">
-        <v>690000</v>
-      </c>
-      <c r="H202">
-        <v>3</v>
-      </c>
-      <c r="I202" t="s">
-        <v>1385</v>
-      </c>
-      <c r="J202" t="s">
-        <v>1213</v>
-      </c>
-      <c r="K202" t="s">
-        <v>46</v>
-      </c>
-      <c r="L202" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>108</v>
-      </c>
-      <c r="B203" t="s">
-        <v>109</v>
-      </c>
-      <c r="C203" t="s">
-        <v>110</v>
-      </c>
-      <c r="D203" t="s">
-        <v>111</v>
-      </c>
-      <c r="E203" t="s">
-        <v>11</v>
-      </c>
-      <c r="F203" t="s">
-        <v>12</v>
-      </c>
-      <c r="G203">
-        <v>615000</v>
-      </c>
-      <c r="H203">
-        <v>6</v>
-      </c>
-      <c r="I203" t="s">
-        <v>112</v>
-      </c>
-      <c r="J203" t="s">
-        <v>1214</v>
-      </c>
-      <c r="K203" t="s">
-        <v>0</v>
-      </c>
-      <c r="L203" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>793</v>
-      </c>
-      <c r="B204" t="s">
-        <v>794</v>
-      </c>
-      <c r="C204" t="s">
-        <v>795</v>
-      </c>
-      <c r="D204" t="s">
-        <v>796</v>
-      </c>
-      <c r="E204" t="s">
-        <v>81</v>
-      </c>
-      <c r="F204" t="s">
-        <v>28</v>
-      </c>
-      <c r="G204">
-        <v>103000</v>
-      </c>
-      <c r="H204">
-        <v>15</v>
-      </c>
-      <c r="I204" t="s">
-        <v>1386</v>
-      </c>
-      <c r="J204" t="s">
-        <v>872</v>
-      </c>
-      <c r="K204" t="s">
-        <v>46</v>
-      </c>
-      <c r="L204" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>537</v>
-      </c>
-      <c r="B205" t="s">
-        <v>538</v>
-      </c>
-      <c r="C205" t="s">
-        <v>454</v>
-      </c>
-      <c r="D205" t="s">
-        <v>539</v>
-      </c>
-      <c r="E205" t="s">
-        <v>187</v>
-      </c>
-      <c r="F205" t="s">
-        <v>12</v>
-      </c>
-      <c r="G205">
-        <v>50000</v>
-      </c>
-      <c r="H205">
-        <v>4</v>
-      </c>
-      <c r="I205" t="s">
-        <v>1387</v>
-      </c>
-      <c r="J205" t="s">
-        <v>1215</v>
-      </c>
-      <c r="K205" t="s">
-        <v>46</v>
-      </c>
-      <c r="L205" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
-        <v>201</v>
-      </c>
-      <c r="B206" t="s">
-        <v>202</v>
-      </c>
-      <c r="C206" t="s">
-        <v>60</v>
-      </c>
-      <c r="D206" t="s">
-        <v>203</v>
-      </c>
-      <c r="E206" t="s">
-        <v>5</v>
-      </c>
-      <c r="F206" t="s">
-        <v>6</v>
-      </c>
-      <c r="G206">
-        <v>60000</v>
-      </c>
-      <c r="H206">
-        <v>3</v>
-      </c>
-      <c r="I206" t="s">
-        <v>1388</v>
-      </c>
-      <c r="J206" t="s">
-        <v>829</v>
-      </c>
-      <c r="K206" t="s">
-        <v>46</v>
-      </c>
-      <c r="L206" t="s">
-        <v>1075</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
